--- a/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_1_school_202308.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_1_school_202308.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21CEB94-1B54-453E-8FA3-370131F0E873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE5C7B6-A4FB-42DA-91F3-0A4FCE9213EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="498" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="498" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -690,9 +690,6 @@
     <t>YAMANE SECK</t>
   </si>
   <si>
-    <t>L'ISLAM</t>
-  </si>
-  <si>
     <t>NDIOCK SALL</t>
   </si>
   <si>
@@ -1315,6 +1312,9 @@
   </si>
   <si>
     <t>9.c. Observateur : Y-a-t in dispositif de lavage des mains est-ce ?</t>
+  </si>
+  <si>
+    <t>LISLAM</t>
   </si>
 </sst>
 </file>
@@ -2328,7 +2328,7 @@
         <v>118</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
@@ -2349,10 +2349,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>355</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>356</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
@@ -2370,20 +2370,20 @@
     </row>
     <row r="19" spans="1:12" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>357</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>358</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
       <c r="H19" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9" t="s">
@@ -2400,7 +2400,7 @@
         <v>129</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
@@ -2421,10 +2421,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>372</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>373</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
@@ -2445,17 +2445,17 @@
         <v>25</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="22"/>
       <c r="H22" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="9" t="s">
@@ -2466,20 +2466,20 @@
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>376</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>377</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="22"/>
       <c r="H23" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="9" t="s">
@@ -2514,13 +2514,13 @@
     </row>
     <row r="25" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="23"/>
@@ -2541,10 +2541,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
@@ -2724,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F696"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A69" sqref="A69:XFD417"/>
     </sheetView>
   </sheetViews>
@@ -3402,35 +3402,35 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3452,10 +3452,10 @@
         <v>39</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D69" s="14"/>
     </row>
@@ -3464,10 +3464,10 @@
         <v>39</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D70" s="14"/>
     </row>
@@ -3476,10 +3476,10 @@
         <v>39</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D71" s="14"/>
     </row>
@@ -3488,10 +3488,10 @@
         <v>39</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D72" s="14"/>
     </row>
@@ -3504,13 +3504,13 @@
         <v>40</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3518,13 +3518,13 @@
         <v>40</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3532,13 +3532,13 @@
         <v>40</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3546,13 +3546,13 @@
         <v>40</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3560,13 +3560,13 @@
         <v>40</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3574,13 +3574,13 @@
         <v>40</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3588,13 +3588,13 @@
         <v>40</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3602,13 +3602,13 @@
         <v>40</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3616,13 +3616,13 @@
         <v>40</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,13 +3630,13 @@
         <v>40</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3644,13 +3644,13 @@
         <v>40</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3658,13 +3658,13 @@
         <v>40</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3672,13 +3672,13 @@
         <v>40</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3686,13 +3686,13 @@
         <v>40</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3700,13 +3700,13 @@
         <v>40</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3714,13 +3714,13 @@
         <v>40</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3728,13 +3728,13 @@
         <v>40</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3742,13 +3742,13 @@
         <v>40</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3756,13 +3756,13 @@
         <v>40</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3770,13 +3770,13 @@
         <v>40</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3784,13 +3784,13 @@
         <v>40</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3798,13 +3798,13 @@
         <v>40</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3812,13 +3812,13 @@
         <v>40</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3826,13 +3826,13 @@
         <v>40</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3840,13 +3840,13 @@
         <v>40</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3854,13 +3854,13 @@
         <v>40</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3868,13 +3868,13 @@
         <v>40</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3882,13 +3882,13 @@
         <v>40</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3896,13 +3896,13 @@
         <v>40</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,13 +3910,13 @@
         <v>40</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3924,13 +3924,13 @@
         <v>40</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3938,13 +3938,13 @@
         <v>40</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3952,13 +3952,13 @@
         <v>40</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3966,13 +3966,13 @@
         <v>40</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3980,13 +3980,13 @@
         <v>40</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3994,13 +3994,13 @@
         <v>40</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4008,13 +4008,13 @@
         <v>40</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4022,13 +4022,13 @@
         <v>40</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4036,13 +4036,13 @@
         <v>40</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4050,13 +4050,13 @@
         <v>40</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4064,13 +4064,13 @@
         <v>40</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4078,13 +4078,13 @@
         <v>40</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4092,13 +4092,13 @@
         <v>40</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4106,13 +4106,13 @@
         <v>40</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4120,13 +4120,13 @@
         <v>40</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4134,13 +4134,13 @@
         <v>40</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4148,13 +4148,13 @@
         <v>40</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4162,13 +4162,13 @@
         <v>40</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4176,13 +4176,13 @@
         <v>40</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4190,13 +4190,13 @@
         <v>40</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4204,13 +4204,13 @@
         <v>40</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4218,13 +4218,13 @@
         <v>40</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4232,13 +4232,13 @@
         <v>40</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4246,13 +4246,13 @@
         <v>40</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4265,13 +4265,13 @@
         <v>80</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4279,13 +4279,13 @@
         <v>80</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4293,13 +4293,13 @@
         <v>80</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4307,13 +4307,13 @@
         <v>80</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4321,13 +4321,13 @@
         <v>80</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4335,13 +4335,13 @@
         <v>80</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4349,13 +4349,13 @@
         <v>80</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4363,13 +4363,13 @@
         <v>80</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4377,13 +4377,13 @@
         <v>80</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4391,13 +4391,13 @@
         <v>80</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4405,13 +4405,13 @@
         <v>80</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4419,13 +4419,13 @@
         <v>80</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4433,13 +4433,13 @@
         <v>80</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4447,13 +4447,13 @@
         <v>80</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4461,13 +4461,13 @@
         <v>80</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4475,13 +4475,13 @@
         <v>80</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4489,13 +4489,13 @@
         <v>80</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4503,13 +4503,13 @@
         <v>80</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4517,13 +4517,13 @@
         <v>80</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4531,13 +4531,13 @@
         <v>80</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4545,13 +4545,13 @@
         <v>80</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4559,13 +4559,13 @@
         <v>80</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4573,13 +4573,13 @@
         <v>80</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4587,13 +4587,13 @@
         <v>80</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4601,13 +4601,13 @@
         <v>80</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4615,13 +4615,13 @@
         <v>80</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4629,13 +4629,13 @@
         <v>80</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4643,13 +4643,13 @@
         <v>80</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4657,13 +4657,13 @@
         <v>80</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4671,13 +4671,13 @@
         <v>80</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4685,13 +4685,13 @@
         <v>80</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>171</v>
+        <v>379</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>171</v>
+        <v>379</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4705,7 +4705,7 @@
         <v>169</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4719,7 +4719,7 @@
         <v>170</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4727,13 +4727,13 @@
         <v>80</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4741,13 +4741,13 @@
         <v>80</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4755,13 +4755,13 @@
         <v>80</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4769,13 +4769,13 @@
         <v>80</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4783,13 +4783,13 @@
         <v>80</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4797,13 +4797,13 @@
         <v>80</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4811,13 +4811,13 @@
         <v>80</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4825,13 +4825,13 @@
         <v>80</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4839,13 +4839,13 @@
         <v>80</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4853,13 +4853,13 @@
         <v>80</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4867,13 +4867,13 @@
         <v>80</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4881,13 +4881,13 @@
         <v>80</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4895,13 +4895,13 @@
         <v>80</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4909,13 +4909,13 @@
         <v>80</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4923,13 +4923,13 @@
         <v>80</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4937,13 +4937,13 @@
         <v>80</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4951,13 +4951,13 @@
         <v>80</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4965,13 +4965,13 @@
         <v>80</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4979,13 +4979,13 @@
         <v>80</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4993,13 +4993,13 @@
         <v>80</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -5007,13 +5007,13 @@
         <v>80</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5021,13 +5021,13 @@
         <v>80</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -5035,13 +5035,13 @@
         <v>80</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E184" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5049,13 +5049,13 @@
         <v>80</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5063,13 +5063,13 @@
         <v>80</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5077,13 +5077,13 @@
         <v>80</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5091,13 +5091,13 @@
         <v>80</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5105,13 +5105,13 @@
         <v>80</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5119,13 +5119,13 @@
         <v>80</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5133,13 +5133,13 @@
         <v>80</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5147,13 +5147,13 @@
         <v>80</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5161,13 +5161,13 @@
         <v>80</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5175,13 +5175,13 @@
         <v>80</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5189,13 +5189,13 @@
         <v>80</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5203,13 +5203,13 @@
         <v>80</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5217,13 +5217,13 @@
         <v>80</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5231,13 +5231,13 @@
         <v>80</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5245,13 +5245,13 @@
         <v>80</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5259,13 +5259,13 @@
         <v>80</v>
       </c>
       <c r="B200" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E200" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5273,13 +5273,13 @@
         <v>80</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5287,13 +5287,13 @@
         <v>80</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5301,13 +5301,13 @@
         <v>80</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5315,13 +5315,13 @@
         <v>80</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5329,13 +5329,13 @@
         <v>80</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5343,13 +5343,13 @@
         <v>80</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5357,13 +5357,13 @@
         <v>80</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5371,13 +5371,13 @@
         <v>80</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5385,13 +5385,13 @@
         <v>80</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5399,13 +5399,13 @@
         <v>80</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5413,13 +5413,13 @@
         <v>80</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5427,13 +5427,13 @@
         <v>80</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5441,13 +5441,13 @@
         <v>80</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5455,13 +5455,13 @@
         <v>80</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5469,13 +5469,13 @@
         <v>80</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5483,13 +5483,13 @@
         <v>80</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5497,13 +5497,13 @@
         <v>80</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5511,13 +5511,13 @@
         <v>80</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5525,13 +5525,13 @@
         <v>80</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5539,13 +5539,13 @@
         <v>80</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5553,13 +5553,13 @@
         <v>80</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -5567,13 +5567,13 @@
         <v>80</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5581,13 +5581,13 @@
         <v>80</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -5595,13 +5595,13 @@
         <v>80</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5609,13 +5609,13 @@
         <v>80</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5623,13 +5623,13 @@
         <v>80</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5637,13 +5637,13 @@
         <v>80</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -5651,13 +5651,13 @@
         <v>80</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5665,13 +5665,13 @@
         <v>80</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -5679,13 +5679,13 @@
         <v>80</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5693,13 +5693,13 @@
         <v>80</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5707,13 +5707,13 @@
         <v>80</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5721,13 +5721,13 @@
         <v>80</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5735,13 +5735,13 @@
         <v>80</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5749,13 +5749,13 @@
         <v>80</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5763,13 +5763,13 @@
         <v>80</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5777,13 +5777,13 @@
         <v>80</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5791,13 +5791,13 @@
         <v>80</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5805,13 +5805,13 @@
         <v>80</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5819,13 +5819,13 @@
         <v>80</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5833,13 +5833,13 @@
         <v>80</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -5847,13 +5847,13 @@
         <v>80</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5861,13 +5861,13 @@
         <v>80</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -5875,13 +5875,13 @@
         <v>80</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -5889,13 +5889,13 @@
         <v>80</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -5903,13 +5903,13 @@
         <v>80</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -5917,13 +5917,13 @@
         <v>80</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -5931,13 +5931,13 @@
         <v>80</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -5945,13 +5945,13 @@
         <v>80</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -5959,13 +5959,13 @@
         <v>80</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5973,13 +5973,13 @@
         <v>80</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -5987,13 +5987,13 @@
         <v>80</v>
       </c>
       <c r="B252" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E252" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E252" s="16" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6001,13 +6001,13 @@
         <v>80</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6015,13 +6015,13 @@
         <v>80</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6029,13 +6029,13 @@
         <v>80</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6043,13 +6043,13 @@
         <v>80</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6057,13 +6057,13 @@
         <v>80</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6071,13 +6071,13 @@
         <v>80</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6085,13 +6085,13 @@
         <v>80</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6099,13 +6099,13 @@
         <v>80</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6113,13 +6113,13 @@
         <v>80</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6127,13 +6127,13 @@
         <v>80</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6141,13 +6141,13 @@
         <v>80</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6155,13 +6155,13 @@
         <v>80</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6169,13 +6169,13 @@
         <v>80</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6183,13 +6183,13 @@
         <v>80</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6197,13 +6197,13 @@
         <v>80</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6211,13 +6211,13 @@
         <v>80</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6225,13 +6225,13 @@
         <v>80</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6239,13 +6239,13 @@
         <v>80</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6253,13 +6253,13 @@
         <v>80</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6267,13 +6267,13 @@
         <v>80</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="E274" s="4"/>
       <c r="F274" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="E275" s="4"/>
       <c r="F275" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="E276" s="4"/>
       <c r="F276" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="E277" s="4"/>
       <c r="F277" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="E278" s="4"/>
       <c r="F278" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="E279" s="4"/>
       <c r="F279" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="E280" s="4"/>
       <c r="F280" s="33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="E281" s="4"/>
       <c r="F281" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="E282" s="4"/>
       <c r="F282" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="E283" s="4"/>
       <c r="F283" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="E284" s="4"/>
       <c r="F284" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="E285" s="4"/>
       <c r="F285" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="E286" s="4"/>
       <c r="F286" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="E287" s="4"/>
       <c r="F287" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="E288" s="4"/>
       <c r="F288" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="E289" s="4"/>
       <c r="F289" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="E290" s="4"/>
       <c r="F290" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="E291" s="4"/>
       <c r="F291" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="E292" s="4"/>
       <c r="F292" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="E293" s="4"/>
       <c r="F293" s="33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="E294" s="4"/>
       <c r="F294" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="E295" s="4"/>
       <c r="F295" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="E296" s="4"/>
       <c r="F296" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="E297" s="4"/>
       <c r="F297" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="E298" s="4"/>
       <c r="F298" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="E299" s="4"/>
       <c r="F299" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="E300" s="4"/>
       <c r="F300" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="E301" s="4"/>
       <c r="F301" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="E302" s="4"/>
       <c r="F302" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="E303" s="4"/>
       <c r="F303" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="E304" s="4"/>
       <c r="F304" s="33" t="s">
-        <v>171</v>
+        <v>379</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="E307" s="4"/>
       <c r="F307" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="E308" s="4"/>
       <c r="F308" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="E309" s="4"/>
       <c r="F309" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="E310" s="4"/>
       <c r="F310" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="E311" s="4"/>
       <c r="F311" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="E312" s="4"/>
       <c r="F312" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="E313" s="4"/>
       <c r="F313" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="E314" s="4"/>
       <c r="F314" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="E315" s="4"/>
       <c r="F315" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="E316" s="4"/>
       <c r="F316" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="E317" s="4"/>
       <c r="F317" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="E318" s="4"/>
       <c r="F318" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="E319" s="4"/>
       <c r="F319" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="E320" s="4"/>
       <c r="F320" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,7 +6999,7 @@
       </c>
       <c r="E321" s="4"/>
       <c r="F321" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="E322" s="4"/>
       <c r="F322" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="E323" s="4"/>
       <c r="F323" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="E324" s="4"/>
       <c r="F324" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="E325" s="4"/>
       <c r="F325" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="E326" s="4"/>
       <c r="F326" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="E327" s="4"/>
       <c r="F327" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="E328" s="4"/>
       <c r="F328" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="E329" s="4"/>
       <c r="F329" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="E330" s="4"/>
       <c r="F330" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="E331" s="4"/>
       <c r="F331" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="E332" s="4"/>
       <c r="F332" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="E333" s="4"/>
       <c r="F333" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="E334" s="4"/>
       <c r="F334" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="E335" s="4"/>
       <c r="F335" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="E336" s="4"/>
       <c r="F336" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="E337" s="4"/>
       <c r="F337" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="E338" s="4"/>
       <c r="F338" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="E339" s="4"/>
       <c r="F339" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="E340" s="4"/>
       <c r="F340" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="E341" s="4"/>
       <c r="F341" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="E342" s="4"/>
       <c r="F342" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="E343" s="4"/>
       <c r="F343" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="E344" s="4"/>
       <c r="F344" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="E345" s="4"/>
       <c r="F345" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="E346" s="4"/>
       <c r="F346" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="E347" s="4"/>
       <c r="F347" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="E348" s="4"/>
       <c r="F348" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="E349" s="4"/>
       <c r="F349" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="E350" s="4"/>
       <c r="F350" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="E351" s="4"/>
       <c r="F351" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="E352" s="4"/>
       <c r="F352" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="E353" s="4"/>
       <c r="F353" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -7494,7 +7494,7 @@
       </c>
       <c r="E354" s="4"/>
       <c r="F354" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="E355" s="4"/>
       <c r="F355" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="E356" s="4"/>
       <c r="F356" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="E357" s="4"/>
       <c r="F357" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="E358" s="4"/>
       <c r="F358" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="E359" s="4"/>
       <c r="F359" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="E360" s="4"/>
       <c r="F360" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="E361" s="4"/>
       <c r="F361" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="E362" s="4"/>
       <c r="F362" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="E363" s="4"/>
       <c r="F363" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="E364" s="4"/>
       <c r="F364" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="E365" s="4"/>
       <c r="F365" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="E366" s="4"/>
       <c r="F366" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="E367" s="4"/>
       <c r="F367" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="E368" s="4"/>
       <c r="F368" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="E369" s="4"/>
       <c r="F369" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="E370" s="4"/>
       <c r="F370" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="E371" s="4"/>
       <c r="F371" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="E372" s="4"/>
       <c r="F372" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="E373" s="4"/>
       <c r="F373" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="E374" s="4"/>
       <c r="F374" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="E375" s="4"/>
       <c r="F375" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="E376" s="4"/>
       <c r="F376" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="E377" s="4"/>
       <c r="F377" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="E378" s="4"/>
       <c r="F378" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="E379" s="4"/>
       <c r="F379" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="E380" s="4"/>
       <c r="F380" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="E381" s="4"/>
       <c r="F381" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="E382" s="4"/>
       <c r="F382" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="E383" s="4"/>
       <c r="F383" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="E384" s="4"/>
       <c r="F384" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="E385" s="4"/>
       <c r="F385" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="E386" s="4"/>
       <c r="F386" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="E387" s="4"/>
       <c r="F387" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="E388" s="4"/>
       <c r="F388" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E389" s="4"/>
       <c r="F389" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="E390" s="4"/>
       <c r="F390" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="E391" s="4"/>
       <c r="F391" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="E392" s="4"/>
       <c r="F392" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="E393" s="4"/>
       <c r="F393" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -8093,7 +8093,7 @@
         <v>221</v>
       </c>
       <c r="F394" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -8107,7 +8107,7 @@
         <v>222</v>
       </c>
       <c r="F395" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -8121,7 +8121,7 @@
         <v>223</v>
       </c>
       <c r="F396" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -8135,7 +8135,7 @@
         <v>224</v>
       </c>
       <c r="F397" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -8149,7 +8149,7 @@
         <v>225</v>
       </c>
       <c r="F398" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -8163,7 +8163,7 @@
         <v>226</v>
       </c>
       <c r="F399" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -8177,7 +8177,7 @@
         <v>227</v>
       </c>
       <c r="F400" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -8191,7 +8191,7 @@
         <v>228</v>
       </c>
       <c r="F401" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -8205,7 +8205,7 @@
         <v>229</v>
       </c>
       <c r="F402" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -8219,7 +8219,7 @@
         <v>230</v>
       </c>
       <c r="F403" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -8233,7 +8233,7 @@
         <v>231</v>
       </c>
       <c r="F404" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -8247,7 +8247,7 @@
         <v>232</v>
       </c>
       <c r="F405" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -8261,7 +8261,7 @@
         <v>233</v>
       </c>
       <c r="F406" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -8275,7 +8275,7 @@
         <v>234</v>
       </c>
       <c r="F407" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -8289,7 +8289,7 @@
         <v>235</v>
       </c>
       <c r="F408" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -8303,7 +8303,7 @@
         <v>236</v>
       </c>
       <c r="F409" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -8317,7 +8317,7 @@
         <v>237</v>
       </c>
       <c r="F410" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -8331,7 +8331,7 @@
         <v>238</v>
       </c>
       <c r="F411" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -8345,7 +8345,7 @@
         <v>239</v>
       </c>
       <c r="F412" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -8359,7 +8359,7 @@
         <v>240</v>
       </c>
       <c r="F413" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -8373,7 +8373,7 @@
         <v>241</v>
       </c>
       <c r="F414" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -8387,7 +8387,7 @@
         <v>242</v>
       </c>
       <c r="F415" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -8401,7 +8401,7 @@
         <v>243</v>
       </c>
       <c r="F416" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -8415,7 +8415,7 @@
         <v>244</v>
       </c>
       <c r="F417" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -9866,9 +9866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F8A2FE-6C7B-4BFB-9CE4-95ADE87922AA}">
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D145"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9915,924 +9915,924 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E2">
         <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E3">
         <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E4">
         <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5">
         <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E6">
         <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E7">
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E8">
         <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E9">
         <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E10">
         <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E11">
         <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E12">
         <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E13">
         <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E14">
         <v>113</v>
       </c>
       <c r="I14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E15">
         <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16">
         <v>115</v>
       </c>
       <c r="I16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E17">
         <v>116</v>
       </c>
       <c r="I17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E18">
         <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E19">
         <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E20">
         <v>119</v>
       </c>
       <c r="I20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E21">
         <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E22">
         <v>121</v>
       </c>
       <c r="I22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E23">
         <v>122</v>
       </c>
       <c r="I23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E24">
         <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E25">
         <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E26">
         <v>125</v>
       </c>
       <c r="I26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E27">
         <v>126</v>
       </c>
       <c r="I27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E28">
         <v>127</v>
       </c>
       <c r="I28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E29">
         <v>128</v>
       </c>
       <c r="I29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E30">
         <v>129</v>
       </c>
       <c r="I30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E31">
         <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
+        <v>379</v>
       </c>
       <c r="E32">
         <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s">
-        <v>171</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D33" t="s">
         <v>169</v>
@@ -10841,13 +10841,13 @@
         <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s">
         <v>169</v>
@@ -10855,13 +10855,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D34" t="s">
         <v>170</v>
@@ -10870,13 +10870,13 @@
         <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s">
         <v>170</v>
@@ -10884,2681 +10884,2681 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E35">
         <v>134</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E36">
         <v>135</v>
       </c>
       <c r="I36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E37">
         <v>136</v>
       </c>
       <c r="I37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E38">
         <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E39">
         <v>138</v>
       </c>
       <c r="I39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E40">
         <v>139</v>
       </c>
       <c r="I40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E41">
         <v>140</v>
       </c>
       <c r="I41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E42">
         <v>141</v>
       </c>
       <c r="I42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E43">
         <v>142</v>
       </c>
       <c r="I43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E44">
         <v>143</v>
       </c>
       <c r="I44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E45">
         <v>144</v>
       </c>
       <c r="I45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E46">
         <v>145</v>
       </c>
       <c r="I46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47">
         <v>146</v>
       </c>
       <c r="I47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48">
         <v>147</v>
       </c>
       <c r="I48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" t="s">
         <v>184</v>
-      </c>
-      <c r="D49" t="s">
-        <v>185</v>
       </c>
       <c r="E49">
         <v>148</v>
       </c>
       <c r="I49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L49" t="s">
+        <v>183</v>
+      </c>
+      <c r="M49" t="s">
         <v>184</v>
-      </c>
-      <c r="M49" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E50">
         <v>149</v>
       </c>
       <c r="I50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E51">
         <v>150</v>
       </c>
       <c r="I51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E52">
         <v>151</v>
       </c>
       <c r="I52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E53">
         <v>152</v>
       </c>
       <c r="I53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" t="s">
         <v>193</v>
-      </c>
-      <c r="D54" t="s">
-        <v>194</v>
       </c>
       <c r="E54">
         <v>153</v>
       </c>
       <c r="I54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L54" t="s">
+        <v>192</v>
+      </c>
+      <c r="M54" t="s">
         <v>193</v>
-      </c>
-      <c r="M54" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E55">
         <v>154</v>
       </c>
       <c r="I55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E56">
         <v>155</v>
       </c>
       <c r="L56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E57">
         <v>156</v>
       </c>
       <c r="L57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E58">
         <v>157</v>
       </c>
       <c r="L58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C59" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" t="s">
         <v>201</v>
-      </c>
-      <c r="D59" t="s">
-        <v>202</v>
       </c>
       <c r="E59">
         <v>158</v>
       </c>
       <c r="L59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M59" t="s">
         <v>201</v>
-      </c>
-      <c r="M59" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E60">
         <v>159</v>
       </c>
       <c r="L60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E61">
         <v>160</v>
       </c>
       <c r="L61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E62">
         <v>161</v>
       </c>
       <c r="L62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E63">
         <v>162</v>
       </c>
       <c r="L63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E64">
         <v>163</v>
       </c>
       <c r="L64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E65">
         <v>164</v>
       </c>
       <c r="L65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E66">
         <v>165</v>
       </c>
       <c r="L66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C67" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" t="s">
         <v>204</v>
-      </c>
-      <c r="D67" t="s">
-        <v>205</v>
       </c>
       <c r="E67">
         <v>166</v>
       </c>
       <c r="L67" t="s">
+        <v>203</v>
+      </c>
+      <c r="M67" t="s">
         <v>204</v>
-      </c>
-      <c r="M67" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E68">
         <v>167</v>
       </c>
       <c r="L68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E69">
         <v>168</v>
       </c>
       <c r="L69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E70">
         <v>169</v>
       </c>
       <c r="L70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E71">
         <v>170</v>
       </c>
       <c r="L71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E72">
         <v>171</v>
       </c>
       <c r="L72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E73">
         <v>172</v>
       </c>
       <c r="L73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C74" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" t="s">
         <v>209</v>
-      </c>
-      <c r="D74" t="s">
-        <v>210</v>
       </c>
       <c r="E74">
         <v>173</v>
       </c>
       <c r="L74" t="s">
+        <v>208</v>
+      </c>
+      <c r="M74" t="s">
         <v>209</v>
-      </c>
-      <c r="M74" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E75">
         <v>174</v>
       </c>
       <c r="L75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E76">
         <v>175</v>
       </c>
       <c r="L76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E77">
         <v>176</v>
       </c>
       <c r="L77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E78">
         <v>177</v>
       </c>
       <c r="L78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E79">
         <v>178</v>
       </c>
       <c r="L79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B80" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E80">
         <v>179</v>
       </c>
       <c r="L80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E81">
         <v>180</v>
       </c>
       <c r="L81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E82">
         <v>181</v>
       </c>
       <c r="L82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B83" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E83">
         <v>182</v>
       </c>
       <c r="L83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B84" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C84" t="s">
+        <v>219</v>
+      </c>
+      <c r="D84" t="s">
         <v>220</v>
-      </c>
-      <c r="D84" t="s">
-        <v>221</v>
       </c>
       <c r="E84">
         <v>183</v>
       </c>
       <c r="L84" t="s">
+        <v>219</v>
+      </c>
+      <c r="M84" t="s">
         <v>220</v>
-      </c>
-      <c r="M84" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E85">
         <v>184</v>
       </c>
       <c r="L85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E86">
         <v>185</v>
       </c>
       <c r="L86" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E87">
         <v>186</v>
       </c>
       <c r="L87" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C88" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E88">
         <v>187</v>
       </c>
       <c r="L88" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C89" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E89">
         <v>188</v>
       </c>
       <c r="L89" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E90">
         <v>189</v>
       </c>
       <c r="L90" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C91" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D91" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E91">
         <v>190</v>
       </c>
       <c r="L91" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M91" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E92">
         <v>191</v>
       </c>
       <c r="L92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E93">
         <v>192</v>
       </c>
       <c r="L93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B94" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C94" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E94">
         <v>193</v>
       </c>
       <c r="L94" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E95">
         <v>194</v>
       </c>
       <c r="L95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B96" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E96">
         <v>195</v>
       </c>
       <c r="L96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D97" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E97">
         <v>196</v>
       </c>
       <c r="L97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M97" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B98" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E98">
         <v>197</v>
       </c>
       <c r="L98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B99" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C99" t="s">
+        <v>235</v>
+      </c>
+      <c r="D99" t="s">
         <v>236</v>
-      </c>
-      <c r="D99" t="s">
-        <v>237</v>
       </c>
       <c r="E99">
         <v>198</v>
       </c>
       <c r="L99" t="s">
+        <v>235</v>
+      </c>
+      <c r="M99" t="s">
         <v>236</v>
-      </c>
-      <c r="M99" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B100" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E100">
         <v>199</v>
       </c>
       <c r="L100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C101" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E101">
         <v>200</v>
       </c>
       <c r="L101" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C102" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E102">
         <v>201</v>
       </c>
       <c r="L102" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C103" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D103" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E103">
         <v>202</v>
       </c>
       <c r="L103" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M103" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C104" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E104">
         <v>203</v>
       </c>
       <c r="L104" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C105" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E105">
         <v>204</v>
       </c>
       <c r="L105" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B106" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C106" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E106">
         <v>205</v>
       </c>
       <c r="L106" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B107" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C107" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D107" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E107">
         <v>206</v>
       </c>
       <c r="L107" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M107" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B108" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E108">
         <v>207</v>
       </c>
       <c r="L108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B109" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C109" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E109">
         <v>208</v>
       </c>
       <c r="L109" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B110" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C110" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E110">
         <v>209</v>
       </c>
       <c r="L110" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B111" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C111" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D111" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E111">
         <v>210</v>
       </c>
       <c r="L111" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M111" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D112" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E112">
         <v>211</v>
       </c>
       <c r="L112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M112" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B113" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C113" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" t="s">
         <v>247</v>
-      </c>
-      <c r="D113" t="s">
-        <v>248</v>
       </c>
       <c r="E113">
         <v>212</v>
       </c>
       <c r="L113" t="s">
+        <v>246</v>
+      </c>
+      <c r="M113" t="s">
         <v>247</v>
-      </c>
-      <c r="M113" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E114">
         <v>213</v>
       </c>
       <c r="L114" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B115" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C115" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D115" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E115">
         <v>214</v>
       </c>
       <c r="L115" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M115" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B116" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C116" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E116">
         <v>215</v>
       </c>
       <c r="L116" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B117" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E117">
         <v>216</v>
       </c>
       <c r="L117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B118" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D118" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E118">
         <v>217</v>
       </c>
       <c r="L118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M118" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B119" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E119">
         <v>218</v>
       </c>
       <c r="L119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M119" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B120" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C120" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E120">
         <v>219</v>
       </c>
       <c r="L120" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C121" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E121">
         <v>220</v>
       </c>
       <c r="L121" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B122" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C122" t="s">
+        <v>281</v>
+      </c>
+      <c r="D122" t="s">
         <v>282</v>
-      </c>
-      <c r="D122" t="s">
-        <v>283</v>
       </c>
       <c r="E122">
         <v>221</v>
       </c>
       <c r="L122" t="s">
+        <v>281</v>
+      </c>
+      <c r="M122" t="s">
         <v>282</v>
-      </c>
-      <c r="M122" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C123" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D123" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E123">
         <v>222</v>
       </c>
       <c r="L123" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M123" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B124" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C124" t="s">
+        <v>261</v>
+      </c>
+      <c r="D124" t="s">
         <v>262</v>
-      </c>
-      <c r="D124" t="s">
-        <v>263</v>
       </c>
       <c r="E124">
         <v>223</v>
       </c>
       <c r="L124" t="s">
+        <v>261</v>
+      </c>
+      <c r="M124" t="s">
         <v>262</v>
-      </c>
-      <c r="M124" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B125" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C125" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E125">
         <v>224</v>
       </c>
       <c r="L125" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B126" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E126">
         <v>225</v>
       </c>
       <c r="L126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B127" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E127">
         <v>226</v>
       </c>
       <c r="L127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B128" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C128" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E128">
         <v>227</v>
       </c>
       <c r="L128" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B129" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C129" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E129">
         <v>228</v>
       </c>
       <c r="L129" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B130" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C130" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E130">
         <v>229</v>
       </c>
       <c r="L130" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B131" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D131" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E131">
         <v>230</v>
       </c>
       <c r="L131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M131" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C132" t="s">
+        <v>266</v>
+      </c>
+      <c r="D132" t="s">
         <v>267</v>
-      </c>
-      <c r="D132" t="s">
-        <v>268</v>
       </c>
       <c r="E132">
         <v>231</v>
       </c>
       <c r="L132" t="s">
+        <v>266</v>
+      </c>
+      <c r="M132" t="s">
         <v>267</v>
-      </c>
-      <c r="M132" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E133">
         <v>232</v>
       </c>
       <c r="L133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B134" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C134" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D134" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E134">
         <v>233</v>
       </c>
       <c r="L134" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M134" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B135" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C135" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E135">
         <v>234</v>
       </c>
       <c r="L135" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B136" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E136">
         <v>235</v>
       </c>
       <c r="L136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B137" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D137" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E137">
         <v>236</v>
       </c>
       <c r="L137" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M137" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B138" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C138" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D138" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E138">
         <v>237</v>
       </c>
       <c r="L138" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M138" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B139" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C139" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" t="s">
         <v>270</v>
-      </c>
-      <c r="D139" t="s">
-        <v>271</v>
       </c>
       <c r="E139">
         <v>238</v>
       </c>
       <c r="L139" t="s">
+        <v>269</v>
+      </c>
+      <c r="M139" t="s">
         <v>270</v>
-      </c>
-      <c r="M139" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B140" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C140" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D140" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E140">
         <v>239</v>
       </c>
       <c r="L140" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M140" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B141" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
+        <v>279</v>
+      </c>
+      <c r="D141" t="s">
         <v>280</v>
-      </c>
-      <c r="D141" t="s">
-        <v>281</v>
       </c>
       <c r="E141">
         <v>240</v>
       </c>
       <c r="L141" t="s">
+        <v>279</v>
+      </c>
+      <c r="M141" t="s">
         <v>280</v>
-      </c>
-      <c r="M141" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E142">
         <v>241</v>
       </c>
       <c r="L142" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C143" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D143" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E143">
         <v>242</v>
       </c>
       <c r="L143" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M143" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C144" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D144" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E144">
         <v>243</v>
       </c>
       <c r="L144" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M144" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B145" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D145" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E145">
         <v>244</v>
       </c>
       <c r="L145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M145" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_1_school_202308.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_1_school_202308.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE5C7B6-A4FB-42DA-91F3-0A4FCE9213EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA88CA1-FFB7-4AD5-9437-53A0866C7CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="498" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="381">
   <si>
     <t>type</t>
   </si>
@@ -1315,6 +1315,9 @@
   </si>
   <si>
     <t>LISLAM</t>
+  </si>
+  <si>
+    <t>A moins d.un KM</t>
   </si>
 </sst>
 </file>
@@ -2725,8 +2728,8 @@
   <dimension ref="A1:F696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69:XFD417"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B1:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3405,7 +3408,7 @@
         <v>364</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>361</v>

--- a/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_1_school_202308.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_1_school_202308.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C688178D-6179-4BE8-9ED6-E34E7953AE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BD8C5A-D51B-4B71-B3AA-0A52AD3CCBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="498" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="498" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="361">
   <si>
     <t>type</t>
   </si>
@@ -1205,6 +1206,42 @@
   </si>
   <si>
     <t>Cette réponse entraine la fin de l'enquête dans cette village. Cette enquête ne peut continuer sans le consentement du Directeur/Président.</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District </t>
+  </si>
+  <si>
+    <t>Aire de Santé</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>DAWAS</t>
+  </si>
+  <si>
+    <t>PÉTÉ OUARACK</t>
+  </si>
+  <si>
+    <t>THIAMÈNE</t>
+  </si>
+  <si>
+    <t>KHARAKHENE</t>
+  </si>
+  <si>
+    <t>MAMAKONO</t>
+  </si>
+  <si>
+    <t>SABADOLA</t>
+  </si>
+  <si>
+    <t>L'ISLAM</t>
+  </si>
+  <si>
+    <t>Code ID</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1465,37 @@
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{905074DF-E6CD-42F2-BC02-EAD75E86698F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2348,11 +2415,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F696"/>
+  <dimension ref="A1:F516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD61"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3130,10 +3197,10 @@
         <v>37</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>263</v>
@@ -3368,10 +3435,10 @@
         <v>37</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>264</v>
@@ -3382,10 +3449,10 @@
         <v>37</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>282</v>
+        <v>355</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>282</v>
+        <v>355</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>264</v>
@@ -3424,10 +3491,10 @@
         <v>37</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>285</v>
+        <v>353</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>285</v>
+        <v>353</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>265</v>
@@ -3438,10 +3505,10 @@
         <v>37</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>265</v>
@@ -3452,10 +3519,10 @@
         <v>37</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>265</v>
@@ -3536,10 +3603,10 @@
         <v>37</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>260</v>
@@ -3550,10 +3617,10 @@
         <v>37</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>260</v>
@@ -3564,10 +3631,10 @@
         <v>37</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>260</v>
@@ -3578,10 +3645,10 @@
         <v>37</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>260</v>
@@ -3592,10 +3659,10 @@
         <v>37</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>260</v>
@@ -3606,10 +3673,10 @@
         <v>37</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>260</v>
@@ -3620,10 +3687,10 @@
         <v>37</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>260</v>
@@ -3634,10 +3701,10 @@
         <v>37</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>260</v>
@@ -3648,10 +3715,10 @@
         <v>37</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>195</v>
+        <v>357</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>195</v>
+        <v>357</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>260</v>
@@ -3662,10 +3729,10 @@
         <v>37</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>260</v>
@@ -3676,10 +3743,10 @@
         <v>37</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>260</v>
@@ -3690,10 +3757,10 @@
         <v>37</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>260</v>
@@ -3704,200 +3771,200 @@
         <v>37</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>37</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>260</v>
-      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>37</v>
+      <c r="A117" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>260</v>
+        <v>167</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>37</v>
+      <c r="A118" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>260</v>
+        <v>303</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>37</v>
+      <c r="A119" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>260</v>
+        <v>315</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>37</v>
+      <c r="A120" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>260</v>
+        <v>316</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>37</v>
+      <c r="A121" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>257</v>
+        <v>359</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>260</v>
+        <v>359</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>37</v>
+      <c r="A122" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>260</v>
+        <v>145</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>37</v>
+      <c r="A123" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>260</v>
+        <v>146</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>37</v>
+      <c r="A124" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>260</v>
+        <v>175</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>37</v>
+      <c r="A125" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>260</v>
+        <v>171</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>37</v>
+      <c r="A126" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>260</v>
+        <v>180</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>37</v>
+      <c r="A127" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>260</v>
+        <v>147</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="E128" s="4"/>
+      <c r="A128" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
         <v>77</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>303</v>
+        <v>189</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>303</v>
+        <v>189</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3905,13 +3972,13 @@
         <v>77</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3919,13 +3986,13 @@
         <v>77</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3933,13 +4000,13 @@
         <v>77</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3947,13 +4014,13 @@
         <v>77</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3961,13 +4028,13 @@
         <v>77</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3975,13 +4042,13 @@
         <v>77</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3989,13 +4056,13 @@
         <v>77</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4003,13 +4070,13 @@
         <v>77</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4017,13 +4084,13 @@
         <v>77</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4031,13 +4098,13 @@
         <v>77</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4045,13 +4112,13 @@
         <v>77</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4059,13 +4126,13 @@
         <v>77</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4073,13 +4140,13 @@
         <v>77</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4087,13 +4154,13 @@
         <v>77</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4101,13 +4168,13 @@
         <v>77</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4115,13 +4182,13 @@
         <v>77</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>316</v>
+        <v>205</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>316</v>
+        <v>205</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4129,13 +4196,13 @@
         <v>77</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4143,13 +4210,13 @@
         <v>77</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4157,13 +4224,13 @@
         <v>77</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>320</v>
+        <v>148</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>320</v>
+        <v>148</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4171,13 +4238,13 @@
         <v>77</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4185,13 +4252,13 @@
         <v>77</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4199,13 +4266,13 @@
         <v>77</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4213,13 +4280,13 @@
         <v>77</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4227,13 +4294,13 @@
         <v>77</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>324</v>
+        <v>149</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>324</v>
+        <v>149</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4241,13 +4308,13 @@
         <v>77</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4255,13 +4322,13 @@
         <v>77</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4269,13 +4336,13 @@
         <v>77</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>328</v>
+        <v>232</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>328</v>
+        <v>232</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4283,13 +4350,13 @@
         <v>77</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4297,13 +4364,13 @@
         <v>77</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4311,13 +4378,13 @@
         <v>77</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>339</v>
+        <v>152</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>339</v>
+        <v>152</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4325,13 +4392,13 @@
         <v>77</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4339,13 +4406,13 @@
         <v>77</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>146</v>
+        <v>272</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>146</v>
+        <v>272</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4353,13 +4420,13 @@
         <v>77</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4367,13 +4434,13 @@
         <v>77</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4381,13 +4448,13 @@
         <v>77</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>149</v>
+        <v>307</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>149</v>
+        <v>307</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4395,13 +4462,13 @@
         <v>77</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4409,13 +4476,13 @@
         <v>77</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4423,13 +4490,13 @@
         <v>77</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>152</v>
+        <v>328</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>152</v>
+        <v>328</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4437,13 +4504,13 @@
         <v>77</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>158</v>
+        <v>327</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>158</v>
+        <v>327</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4451,13 +4518,13 @@
         <v>77</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4465,10 +4532,10 @@
         <v>77</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E170" s="16" t="s">
         <v>289</v>
@@ -4479,13 +4546,13 @@
         <v>77</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4493,13 +4560,13 @@
         <v>77</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4507,13 +4574,13 @@
         <v>77</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4521,13 +4588,13 @@
         <v>77</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4535,13 +4602,13 @@
         <v>77</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4549,3572 +4616,1892 @@
         <v>77</v>
       </c>
       <c r="B176" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="27"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B178" s="4">
+        <v>101</v>
+      </c>
+      <c r="C178" s="4">
+        <v>101</v>
+      </c>
+      <c r="E178" s="4"/>
+      <c r="F178" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B179" s="4">
+        <v>102</v>
+      </c>
+      <c r="C179" s="4">
+        <v>102</v>
+      </c>
+      <c r="E179" s="4"/>
+      <c r="F179" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B180" s="4">
+        <v>103</v>
+      </c>
+      <c r="C180" s="4">
+        <v>103</v>
+      </c>
+      <c r="E180" s="4"/>
+      <c r="F180" s="33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B181" s="4">
+        <v>104</v>
+      </c>
+      <c r="C181" s="4">
+        <v>104</v>
+      </c>
+      <c r="E181" s="4"/>
+      <c r="F181" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B182" s="4">
+        <v>105</v>
+      </c>
+      <c r="C182" s="4">
+        <v>105</v>
+      </c>
+      <c r="E182" s="4"/>
+      <c r="F182" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B183" s="4">
+        <v>106</v>
+      </c>
+      <c r="C183" s="4">
+        <v>106</v>
+      </c>
+      <c r="E183" s="4"/>
+      <c r="F183" s="33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B184" s="4">
+        <v>107</v>
+      </c>
+      <c r="C184" s="4">
+        <v>107</v>
+      </c>
+      <c r="E184" s="4"/>
+      <c r="F184" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B185" s="4">
+        <v>108</v>
+      </c>
+      <c r="C185" s="4">
+        <v>108</v>
+      </c>
+      <c r="E185" s="4"/>
+      <c r="F185" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B186" s="4">
+        <v>109</v>
+      </c>
+      <c r="C186" s="4">
+        <v>109</v>
+      </c>
+      <c r="E186" s="4"/>
+      <c r="F186" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B187" s="4">
+        <v>110</v>
+      </c>
+      <c r="C187" s="4">
+        <v>110</v>
+      </c>
+      <c r="E187" s="4"/>
+      <c r="F187" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B188" s="4">
+        <v>111</v>
+      </c>
+      <c r="C188" s="4">
+        <v>111</v>
+      </c>
+      <c r="E188" s="4"/>
+      <c r="F188" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B189" s="4">
+        <v>112</v>
+      </c>
+      <c r="C189" s="4">
+        <v>112</v>
+      </c>
+      <c r="E189" s="4"/>
+      <c r="F189" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B190" s="4">
+        <v>113</v>
+      </c>
+      <c r="C190" s="4">
+        <v>113</v>
+      </c>
+      <c r="E190" s="4"/>
+      <c r="F190" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B191" s="4">
+        <v>114</v>
+      </c>
+      <c r="C191" s="4">
+        <v>114</v>
+      </c>
+      <c r="E191" s="4"/>
+      <c r="F191" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B192" s="4">
+        <v>115</v>
+      </c>
+      <c r="C192" s="4">
+        <v>115</v>
+      </c>
+      <c r="E192" s="4"/>
+      <c r="F192" s="33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B193" s="4">
+        <v>116</v>
+      </c>
+      <c r="C193" s="4">
+        <v>116</v>
+      </c>
+      <c r="E193" s="4"/>
+      <c r="F193" s="33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B194" s="4">
+        <v>117</v>
+      </c>
+      <c r="C194" s="4">
+        <v>117</v>
+      </c>
+      <c r="E194" s="4"/>
+      <c r="F194" s="33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B195" s="4">
+        <v>118</v>
+      </c>
+      <c r="C195" s="4">
+        <v>118</v>
+      </c>
+      <c r="E195" s="4"/>
+      <c r="F195" s="33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B196" s="4">
+        <v>119</v>
+      </c>
+      <c r="C196" s="4">
+        <v>119</v>
+      </c>
+      <c r="E196" s="4"/>
+      <c r="F196" s="33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B197" s="4">
+        <v>120</v>
+      </c>
+      <c r="C197" s="4">
+        <v>120</v>
+      </c>
+      <c r="E197" s="4"/>
+      <c r="F197" s="33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B198" s="4">
+        <v>121</v>
+      </c>
+      <c r="C198" s="4">
+        <v>121</v>
+      </c>
+      <c r="E198" s="4"/>
+      <c r="F198" s="33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B199" s="4">
+        <v>122</v>
+      </c>
+      <c r="C199" s="4">
+        <v>122</v>
+      </c>
+      <c r="E199" s="4"/>
+      <c r="F199" s="33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B200" s="4">
+        <v>123</v>
+      </c>
+      <c r="C200" s="4">
+        <v>123</v>
+      </c>
+      <c r="E200" s="4"/>
+      <c r="F200" s="33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B201" s="4">
+        <v>124</v>
+      </c>
+      <c r="C201" s="4">
+        <v>124</v>
+      </c>
+      <c r="E201" s="4"/>
+      <c r="F201" s="33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B202" s="4">
+        <v>125</v>
+      </c>
+      <c r="C202" s="4">
+        <v>125</v>
+      </c>
+      <c r="E202" s="4"/>
+      <c r="F202" s="33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B203" s="4">
+        <v>126</v>
+      </c>
+      <c r="C203" s="4">
+        <v>126</v>
+      </c>
+      <c r="E203" s="4"/>
+      <c r="F203" s="33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B204" s="4">
+        <v>127</v>
+      </c>
+      <c r="C204" s="4">
+        <v>127</v>
+      </c>
+      <c r="E204" s="4"/>
+      <c r="F204" s="33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B205" s="4">
+        <v>128</v>
+      </c>
+      <c r="C205" s="4">
+        <v>128</v>
+      </c>
+      <c r="E205" s="4"/>
+      <c r="F205" s="33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B206" s="4">
+        <v>129</v>
+      </c>
+      <c r="C206" s="4">
+        <v>129</v>
+      </c>
+      <c r="E206" s="4"/>
+      <c r="F206" s="33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B207" s="4">
+        <v>130</v>
+      </c>
+      <c r="C207" s="4">
+        <v>130</v>
+      </c>
+      <c r="E207" s="4"/>
+      <c r="F207" s="33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B208" s="4">
+        <v>131</v>
+      </c>
+      <c r="C208" s="4">
+        <v>131</v>
+      </c>
+      <c r="E208" s="4"/>
+      <c r="F208" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B209" s="4">
+        <v>132</v>
+      </c>
+      <c r="C209" s="4">
+        <v>132</v>
+      </c>
+      <c r="E209" s="4"/>
+      <c r="F209" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B210" s="4">
+        <v>133</v>
+      </c>
+      <c r="C210" s="4">
+        <v>133</v>
+      </c>
+      <c r="E210" s="4"/>
+      <c r="F210" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B211" s="4">
+        <v>134</v>
+      </c>
+      <c r="C211" s="4">
+        <v>134</v>
+      </c>
+      <c r="E211" s="4"/>
+      <c r="F211" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B212" s="4">
+        <v>135</v>
+      </c>
+      <c r="C212" s="4">
+        <v>135</v>
+      </c>
+      <c r="E212" s="4"/>
+      <c r="F212" s="33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B213" s="4">
+        <v>136</v>
+      </c>
+      <c r="C213" s="4">
+        <v>136</v>
+      </c>
+      <c r="E213" s="4"/>
+      <c r="F213" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B214" s="4">
+        <v>137</v>
+      </c>
+      <c r="C214" s="4">
+        <v>137</v>
+      </c>
+      <c r="E214" s="4"/>
+      <c r="F214" s="33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B215" s="4">
+        <v>138</v>
+      </c>
+      <c r="C215" s="4">
+        <v>138</v>
+      </c>
+      <c r="E215" s="4"/>
+      <c r="F215" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B216" s="4">
+        <v>139</v>
+      </c>
+      <c r="C216" s="4">
+        <v>139</v>
+      </c>
+      <c r="E216" s="4"/>
+      <c r="F216" s="33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B217" s="4">
+        <v>140</v>
+      </c>
+      <c r="C217" s="4">
+        <v>140</v>
+      </c>
+      <c r="E217" s="4"/>
+      <c r="F217" s="33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B218" s="4">
+        <v>141</v>
+      </c>
+      <c r="C218" s="4">
+        <v>141</v>
+      </c>
+      <c r="E218" s="4"/>
+      <c r="F218" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B219" s="4">
+        <v>142</v>
+      </c>
+      <c r="C219" s="4">
+        <v>142</v>
+      </c>
+      <c r="E219" s="4"/>
+      <c r="F219" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B220" s="4">
+        <v>143</v>
+      </c>
+      <c r="C220" s="4">
+        <v>143</v>
+      </c>
+      <c r="E220" s="4"/>
+      <c r="F220" s="33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B221" s="4">
+        <v>144</v>
+      </c>
+      <c r="C221" s="4">
+        <v>144</v>
+      </c>
+      <c r="E221" s="4"/>
+      <c r="F221" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B222" s="4">
+        <v>145</v>
+      </c>
+      <c r="C222" s="4">
+        <v>145</v>
+      </c>
+      <c r="E222" s="4"/>
+      <c r="F222" s="33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B223" s="4">
+        <v>146</v>
+      </c>
+      <c r="C223" s="4">
+        <v>146</v>
+      </c>
+      <c r="E223" s="4"/>
+      <c r="F223" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B224" s="4">
+        <v>147</v>
+      </c>
+      <c r="C224" s="4">
+        <v>147</v>
+      </c>
+      <c r="E224" s="4"/>
+      <c r="F224" s="33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B225" s="4">
+        <v>148</v>
+      </c>
+      <c r="C225" s="4">
+        <v>148</v>
+      </c>
+      <c r="E225" s="4"/>
+      <c r="F225" s="33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B226" s="4">
+        <v>149</v>
+      </c>
+      <c r="C226" s="4">
+        <v>149</v>
+      </c>
+      <c r="E226" s="4"/>
+      <c r="F226" s="33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B227" s="4">
+        <v>150</v>
+      </c>
+      <c r="C227" s="4">
+        <v>150</v>
+      </c>
+      <c r="E227" s="4"/>
+      <c r="F227" s="33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B228" s="4">
+        <v>151</v>
+      </c>
+      <c r="C228" s="4">
+        <v>151</v>
+      </c>
+      <c r="E228" s="4"/>
+      <c r="F228" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B229" s="4">
+        <v>152</v>
+      </c>
+      <c r="C229" s="4">
+        <v>152</v>
+      </c>
+      <c r="E229" s="4"/>
+      <c r="F229" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B230" s="4">
+        <v>153</v>
+      </c>
+      <c r="C230" s="4">
+        <v>153</v>
+      </c>
+      <c r="E230" s="4"/>
+      <c r="F230" s="33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B231" s="4">
+        <v>154</v>
+      </c>
+      <c r="C231" s="4">
+        <v>154</v>
+      </c>
+      <c r="E231" s="4"/>
+      <c r="F231" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B232" s="4">
+        <v>155</v>
+      </c>
+      <c r="C232" s="4">
+        <v>155</v>
+      </c>
+      <c r="E232" s="4"/>
+      <c r="F232" s="33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B233" s="4">
+        <v>156</v>
+      </c>
+      <c r="C233" s="4">
+        <v>156</v>
+      </c>
+      <c r="E233" s="4"/>
+      <c r="F233" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B234" s="4">
+        <v>157</v>
+      </c>
+      <c r="C234" s="4">
+        <v>157</v>
+      </c>
+      <c r="E234" s="4"/>
+      <c r="F234" s="33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B235" s="4">
+        <v>158</v>
+      </c>
+      <c r="C235" s="4">
+        <v>158</v>
+      </c>
+      <c r="E235" s="4"/>
+      <c r="F235" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B236" s="4">
+        <v>159</v>
+      </c>
+      <c r="C236" s="4">
+        <v>159</v>
+      </c>
+      <c r="E236" s="4"/>
+      <c r="F236" s="33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B237" s="4">
         <v>160</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C237" s="4">
         <v>160</v>
       </c>
-      <c r="E176" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E195" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E196" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E197" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E198" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E199" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E201" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E202" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E203" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E204" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E205" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E207" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E208" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E209" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E211" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E213" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E216" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E217" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E219" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E222" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E223" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E224" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E225" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E226" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E227" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E228" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E229" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E230" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E231" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E232" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E233" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E234" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E235" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E236" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E237" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E238" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E239" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E240" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E241" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E242" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E243" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E244" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E245" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E246" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E247" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E248" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E249" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E250" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E251" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E252" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E253" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E254" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E255" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E256" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E257" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E258" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E259" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E260" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E261" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E263" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E264" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E265" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E266" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E267" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E268" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E269" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E270" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E271" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E272" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="27"/>
-      <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
-      <c r="E273" s="4"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B274" s="4">
-        <v>101</v>
-      </c>
-      <c r="C274" s="4">
-        <v>101</v>
-      </c>
-      <c r="E274" s="4"/>
-      <c r="F274" s="33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B275" s="4">
-        <v>102</v>
-      </c>
-      <c r="C275" s="4">
-        <v>102</v>
-      </c>
-      <c r="E275" s="4"/>
-      <c r="F275" s="33" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B276" s="4">
-        <v>103</v>
-      </c>
-      <c r="C276" s="4">
-        <v>103</v>
-      </c>
-      <c r="E276" s="4"/>
-      <c r="F276" s="33" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B277" s="4">
-        <v>104</v>
-      </c>
-      <c r="C277" s="4">
-        <v>104</v>
-      </c>
-      <c r="E277" s="4"/>
-      <c r="F277" s="33" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B278" s="4">
-        <v>105</v>
-      </c>
-      <c r="C278" s="4">
-        <v>105</v>
-      </c>
-      <c r="E278" s="4"/>
-      <c r="F278" s="33" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B279" s="4">
-        <v>106</v>
-      </c>
-      <c r="C279" s="4">
-        <v>106</v>
-      </c>
-      <c r="E279" s="4"/>
-      <c r="F279" s="33" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B280" s="4">
-        <v>107</v>
-      </c>
-      <c r="C280" s="4">
-        <v>107</v>
-      </c>
-      <c r="E280" s="4"/>
-      <c r="F280" s="33" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B281" s="4">
-        <v>108</v>
-      </c>
-      <c r="C281" s="4">
-        <v>108</v>
-      </c>
-      <c r="E281" s="4"/>
-      <c r="F281" s="33" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B282" s="4">
-        <v>109</v>
-      </c>
-      <c r="C282" s="4">
-        <v>109</v>
-      </c>
-      <c r="E282" s="4"/>
-      <c r="F282" s="33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B283" s="4">
-        <v>110</v>
-      </c>
-      <c r="C283" s="4">
-        <v>110</v>
-      </c>
-      <c r="E283" s="4"/>
-      <c r="F283" s="33" t="s">
+      <c r="E237" s="4"/>
+      <c r="F237" s="33" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B284" s="4">
-        <v>111</v>
-      </c>
-      <c r="C284" s="4">
-        <v>111</v>
-      </c>
-      <c r="E284" s="4"/>
-      <c r="F284" s="33" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B285" s="4">
-        <v>112</v>
-      </c>
-      <c r="C285" s="4">
-        <v>112</v>
-      </c>
-      <c r="E285" s="4"/>
-      <c r="F285" s="33" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B286" s="4">
-        <v>113</v>
-      </c>
-      <c r="C286" s="4">
-        <v>113</v>
-      </c>
-      <c r="E286" s="4"/>
-      <c r="F286" s="33" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B287" s="4">
-        <v>114</v>
-      </c>
-      <c r="C287" s="4">
-        <v>114</v>
-      </c>
-      <c r="E287" s="4"/>
-      <c r="F287" s="33" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B288" s="4">
-        <v>115</v>
-      </c>
-      <c r="C288" s="4">
-        <v>115</v>
-      </c>
-      <c r="E288" s="4"/>
-      <c r="F288" s="33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B289" s="4">
-        <v>116</v>
-      </c>
-      <c r="C289" s="4">
-        <v>116</v>
-      </c>
-      <c r="E289" s="4"/>
-      <c r="F289" s="33" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B290" s="4">
-        <v>117</v>
-      </c>
-      <c r="C290" s="4">
-        <v>117</v>
-      </c>
-      <c r="E290" s="4"/>
-      <c r="F290" s="33" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B291" s="4">
-        <v>118</v>
-      </c>
-      <c r="C291" s="4">
-        <v>118</v>
-      </c>
-      <c r="E291" s="4"/>
-      <c r="F291" s="33" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B292" s="4">
-        <v>119</v>
-      </c>
-      <c r="C292" s="4">
-        <v>119</v>
-      </c>
-      <c r="E292" s="4"/>
-      <c r="F292" s="33" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B293" s="4">
-        <v>120</v>
-      </c>
-      <c r="C293" s="4">
-        <v>120</v>
-      </c>
-      <c r="E293" s="4"/>
-      <c r="F293" s="33" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B294" s="4">
-        <v>121</v>
-      </c>
-      <c r="C294" s="4">
-        <v>121</v>
-      </c>
-      <c r="E294" s="4"/>
-      <c r="F294" s="33" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B295" s="4">
-        <v>122</v>
-      </c>
-      <c r="C295" s="4">
-        <v>122</v>
-      </c>
-      <c r="E295" s="4"/>
-      <c r="F295" s="33" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B296" s="4">
-        <v>123</v>
-      </c>
-      <c r="C296" s="4">
-        <v>123</v>
-      </c>
-      <c r="E296" s="4"/>
-      <c r="F296" s="33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B297" s="4">
-        <v>124</v>
-      </c>
-      <c r="C297" s="4">
-        <v>124</v>
-      </c>
-      <c r="E297" s="4"/>
-      <c r="F297" s="33" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B298" s="4">
-        <v>125</v>
-      </c>
-      <c r="C298" s="4">
-        <v>125</v>
-      </c>
-      <c r="E298" s="4"/>
-      <c r="F298" s="33" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B299" s="4">
-        <v>126</v>
-      </c>
-      <c r="C299" s="4">
-        <v>126</v>
-      </c>
-      <c r="E299" s="4"/>
-      <c r="F299" s="33" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B300" s="4">
-        <v>127</v>
-      </c>
-      <c r="C300" s="4">
-        <v>127</v>
-      </c>
-      <c r="E300" s="4"/>
-      <c r="F300" s="33" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B301" s="4">
-        <v>128</v>
-      </c>
-      <c r="C301" s="4">
-        <v>128</v>
-      </c>
-      <c r="E301" s="4"/>
-      <c r="F301" s="33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B302" s="4">
-        <v>129</v>
-      </c>
-      <c r="C302" s="4">
-        <v>129</v>
-      </c>
-      <c r="E302" s="4"/>
-      <c r="F302" s="33" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B303" s="4">
-        <v>130</v>
-      </c>
-      <c r="C303" s="4">
-        <v>130</v>
-      </c>
-      <c r="E303" s="4"/>
-      <c r="F303" s="33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B304" s="4">
-        <v>131</v>
-      </c>
-      <c r="C304" s="4">
-        <v>131</v>
-      </c>
-      <c r="E304" s="4"/>
-      <c r="F304" s="33" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B305" s="4">
-        <v>132</v>
-      </c>
-      <c r="C305" s="4">
-        <v>132</v>
-      </c>
-      <c r="E305" s="4"/>
-      <c r="F305" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B306" s="4">
-        <v>133</v>
-      </c>
-      <c r="C306" s="4">
-        <v>133</v>
-      </c>
-      <c r="E306" s="4"/>
-      <c r="F306" s="33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B307" s="4">
-        <v>134</v>
-      </c>
-      <c r="C307" s="4">
-        <v>134</v>
-      </c>
-      <c r="E307" s="4"/>
-      <c r="F307" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B308" s="4">
-        <v>135</v>
-      </c>
-      <c r="C308" s="4">
-        <v>135</v>
-      </c>
-      <c r="E308" s="4"/>
-      <c r="F308" s="33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B309" s="4">
-        <v>136</v>
-      </c>
-      <c r="C309" s="4">
-        <v>136</v>
-      </c>
-      <c r="E309" s="4"/>
-      <c r="F309" s="33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B310" s="4">
-        <v>137</v>
-      </c>
-      <c r="C310" s="4">
-        <v>137</v>
-      </c>
-      <c r="E310" s="4"/>
-      <c r="F310" s="33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B311" s="4">
-        <v>138</v>
-      </c>
-      <c r="C311" s="4">
-        <v>138</v>
-      </c>
-      <c r="E311" s="4"/>
-      <c r="F311" s="33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B312" s="4">
-        <v>139</v>
-      </c>
-      <c r="C312" s="4">
-        <v>139</v>
-      </c>
-      <c r="E312" s="4"/>
-      <c r="F312" s="33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B313" s="4">
-        <v>140</v>
-      </c>
-      <c r="C313" s="4">
-        <v>140</v>
-      </c>
-      <c r="E313" s="4"/>
-      <c r="F313" s="33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B314" s="4">
-        <v>141</v>
-      </c>
-      <c r="C314" s="4">
-        <v>141</v>
-      </c>
-      <c r="E314" s="4"/>
-      <c r="F314" s="33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B315" s="4">
-        <v>142</v>
-      </c>
-      <c r="C315" s="4">
-        <v>142</v>
-      </c>
-      <c r="E315" s="4"/>
-      <c r="F315" s="33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B316" s="4">
-        <v>143</v>
-      </c>
-      <c r="C316" s="4">
-        <v>143</v>
-      </c>
-      <c r="E316" s="4"/>
-      <c r="F316" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B317" s="4">
-        <v>144</v>
-      </c>
-      <c r="C317" s="4">
-        <v>144</v>
-      </c>
-      <c r="E317" s="4"/>
-      <c r="F317" s="33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B318" s="4">
-        <v>145</v>
-      </c>
-      <c r="C318" s="4">
-        <v>145</v>
-      </c>
-      <c r="E318" s="4"/>
-      <c r="F318" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B319" s="4">
-        <v>146</v>
-      </c>
-      <c r="C319" s="4">
-        <v>146</v>
-      </c>
-      <c r="E319" s="4"/>
-      <c r="F319" s="33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B320" s="4">
-        <v>147</v>
-      </c>
-      <c r="C320" s="4">
-        <v>147</v>
-      </c>
-      <c r="E320" s="4"/>
-      <c r="F320" s="33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B321" s="4">
-        <v>148</v>
-      </c>
-      <c r="C321" s="4">
-        <v>148</v>
-      </c>
-      <c r="E321" s="4"/>
-      <c r="F321" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B322" s="4">
-        <v>149</v>
-      </c>
-      <c r="C322" s="4">
-        <v>149</v>
-      </c>
-      <c r="E322" s="4"/>
-      <c r="F322" s="33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B323" s="4">
-        <v>150</v>
-      </c>
-      <c r="C323" s="4">
-        <v>150</v>
-      </c>
-      <c r="E323" s="4"/>
-      <c r="F323" s="33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B324" s="4">
-        <v>151</v>
-      </c>
-      <c r="C324" s="4">
-        <v>151</v>
-      </c>
-      <c r="E324" s="4"/>
-      <c r="F324" s="33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B325" s="4">
-        <v>152</v>
-      </c>
-      <c r="C325" s="4">
-        <v>152</v>
-      </c>
-      <c r="E325" s="4"/>
-      <c r="F325" s="33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B326" s="4">
-        <v>153</v>
-      </c>
-      <c r="C326" s="4">
-        <v>153</v>
-      </c>
-      <c r="E326" s="4"/>
-      <c r="F326" s="33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B327" s="4">
-        <v>154</v>
-      </c>
-      <c r="C327" s="4">
-        <v>154</v>
-      </c>
-      <c r="E327" s="4"/>
-      <c r="F327" s="33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B328" s="4">
-        <v>155</v>
-      </c>
-      <c r="C328" s="4">
-        <v>155</v>
-      </c>
-      <c r="E328" s="4"/>
-      <c r="F328" s="33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B329" s="4">
-        <v>156</v>
-      </c>
-      <c r="C329" s="4">
-        <v>156</v>
-      </c>
-      <c r="E329" s="4"/>
-      <c r="F329" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B330" s="4">
-        <v>157</v>
-      </c>
-      <c r="C330" s="4">
-        <v>157</v>
-      </c>
-      <c r="E330" s="4"/>
-      <c r="F330" s="33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B331" s="4">
-        <v>158</v>
-      </c>
-      <c r="C331" s="4">
-        <v>158</v>
-      </c>
-      <c r="E331" s="4"/>
-      <c r="F331" s="33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B332" s="4">
-        <v>159</v>
-      </c>
-      <c r="C332" s="4">
-        <v>159</v>
-      </c>
-      <c r="E332" s="4"/>
-      <c r="F332" s="33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B333" s="4">
-        <v>160</v>
-      </c>
-      <c r="C333" s="4">
-        <v>160</v>
-      </c>
-      <c r="E333" s="4"/>
-      <c r="F333" s="33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B334" s="4">
-        <v>161</v>
-      </c>
-      <c r="C334" s="4">
-        <v>161</v>
-      </c>
-      <c r="E334" s="4"/>
-      <c r="F334" s="33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B335" s="4">
-        <v>162</v>
-      </c>
-      <c r="C335" s="4">
-        <v>162</v>
-      </c>
-      <c r="E335" s="4"/>
-      <c r="F335" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B336" s="4">
-        <v>163</v>
-      </c>
-      <c r="C336" s="4">
-        <v>163</v>
-      </c>
-      <c r="E336" s="4"/>
-      <c r="F336" s="33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B337" s="4">
-        <v>164</v>
-      </c>
-      <c r="C337" s="4">
-        <v>164</v>
-      </c>
-      <c r="E337" s="4"/>
-      <c r="F337" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B338" s="4">
-        <v>165</v>
-      </c>
-      <c r="C338" s="4">
-        <v>165</v>
-      </c>
-      <c r="E338" s="4"/>
-      <c r="F338" s="33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B339" s="4">
-        <v>166</v>
-      </c>
-      <c r="C339" s="4">
-        <v>166</v>
-      </c>
-      <c r="E339" s="4"/>
-      <c r="F339" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B340" s="4">
-        <v>167</v>
-      </c>
-      <c r="C340" s="4">
-        <v>167</v>
-      </c>
-      <c r="E340" s="4"/>
-      <c r="F340" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B341" s="4">
-        <v>168</v>
-      </c>
-      <c r="C341" s="4">
-        <v>168</v>
-      </c>
-      <c r="E341" s="4"/>
-      <c r="F341" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B342" s="4">
-        <v>169</v>
-      </c>
-      <c r="C342" s="4">
-        <v>169</v>
-      </c>
-      <c r="E342" s="4"/>
-      <c r="F342" s="33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B343" s="4">
-        <v>170</v>
-      </c>
-      <c r="C343" s="4">
-        <v>170</v>
-      </c>
-      <c r="E343" s="4"/>
-      <c r="F343" s="33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B344" s="4">
-        <v>171</v>
-      </c>
-      <c r="C344" s="4">
-        <v>171</v>
-      </c>
-      <c r="E344" s="4"/>
-      <c r="F344" s="33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B345" s="4">
-        <v>172</v>
-      </c>
-      <c r="C345" s="4">
-        <v>172</v>
-      </c>
-      <c r="E345" s="4"/>
-      <c r="F345" s="33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B346" s="4">
-        <v>173</v>
-      </c>
-      <c r="C346" s="4">
-        <v>173</v>
-      </c>
-      <c r="E346" s="4"/>
-      <c r="F346" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B347" s="4">
-        <v>174</v>
-      </c>
-      <c r="C347" s="4">
-        <v>174</v>
-      </c>
-      <c r="E347" s="4"/>
-      <c r="F347" s="33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B348" s="4">
-        <v>175</v>
-      </c>
-      <c r="C348" s="4">
-        <v>175</v>
-      </c>
-      <c r="E348" s="4"/>
-      <c r="F348" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B349" s="4">
-        <v>176</v>
-      </c>
-      <c r="C349" s="4">
-        <v>176</v>
-      </c>
-      <c r="E349" s="4"/>
-      <c r="F349" s="33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B350" s="4">
-        <v>177</v>
-      </c>
-      <c r="C350" s="4">
-        <v>177</v>
-      </c>
-      <c r="E350" s="4"/>
-      <c r="F350" s="33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B351" s="4">
-        <v>178</v>
-      </c>
-      <c r="C351" s="4">
-        <v>178</v>
-      </c>
-      <c r="E351" s="4"/>
-      <c r="F351" s="33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B352" s="4">
-        <v>179</v>
-      </c>
-      <c r="C352" s="4">
-        <v>179</v>
-      </c>
-      <c r="E352" s="4"/>
-      <c r="F352" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B353" s="4">
-        <v>180</v>
-      </c>
-      <c r="C353" s="4">
-        <v>180</v>
-      </c>
-      <c r="E353" s="4"/>
-      <c r="F353" s="33" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B354" s="4">
-        <v>181</v>
-      </c>
-      <c r="C354" s="4">
-        <v>181</v>
-      </c>
-      <c r="E354" s="4"/>
-      <c r="F354" s="33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B355" s="4">
-        <v>182</v>
-      </c>
-      <c r="C355" s="4">
-        <v>182</v>
-      </c>
-      <c r="E355" s="4"/>
-      <c r="F355" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B356" s="4">
-        <v>183</v>
-      </c>
-      <c r="C356" s="4">
-        <v>183</v>
-      </c>
-      <c r="E356" s="4"/>
-      <c r="F356" s="33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B357" s="4">
-        <v>184</v>
-      </c>
-      <c r="C357" s="4">
-        <v>184</v>
-      </c>
-      <c r="E357" s="4"/>
-      <c r="F357" s="33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B358" s="4">
-        <v>185</v>
-      </c>
-      <c r="C358" s="4">
-        <v>185</v>
-      </c>
-      <c r="E358" s="4"/>
-      <c r="F358" s="33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B359" s="4">
-        <v>186</v>
-      </c>
-      <c r="C359" s="4">
-        <v>186</v>
-      </c>
-      <c r="E359" s="4"/>
-      <c r="F359" s="33" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B360" s="4">
-        <v>187</v>
-      </c>
-      <c r="C360" s="4">
-        <v>187</v>
-      </c>
-      <c r="E360" s="4"/>
-      <c r="F360" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B361" s="4">
-        <v>188</v>
-      </c>
-      <c r="C361" s="4">
-        <v>188</v>
-      </c>
-      <c r="E361" s="4"/>
-      <c r="F361" s="33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B362" s="4">
-        <v>189</v>
-      </c>
-      <c r="C362" s="4">
-        <v>189</v>
-      </c>
-      <c r="E362" s="4"/>
-      <c r="F362" s="33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B363" s="4">
-        <v>190</v>
-      </c>
-      <c r="C363" s="4">
-        <v>190</v>
-      </c>
-      <c r="E363" s="4"/>
-      <c r="F363" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B364" s="4">
-        <v>191</v>
-      </c>
-      <c r="C364" s="4">
-        <v>191</v>
-      </c>
-      <c r="E364" s="4"/>
-      <c r="F364" s="33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B365" s="4">
-        <v>192</v>
-      </c>
-      <c r="C365" s="4">
-        <v>192</v>
-      </c>
-      <c r="E365" s="4"/>
-      <c r="F365" s="33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B366" s="4">
-        <v>193</v>
-      </c>
-      <c r="C366" s="4">
-        <v>193</v>
-      </c>
-      <c r="E366" s="4"/>
-      <c r="F366" s="33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B367" s="4">
-        <v>194</v>
-      </c>
-      <c r="C367" s="4">
-        <v>194</v>
-      </c>
-      <c r="E367" s="4"/>
-      <c r="F367" s="33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B368" s="4">
-        <v>195</v>
-      </c>
-      <c r="C368" s="4">
-        <v>195</v>
-      </c>
-      <c r="E368" s="4"/>
-      <c r="F368" s="33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B369" s="4">
-        <v>196</v>
-      </c>
-      <c r="C369" s="4">
-        <v>196</v>
-      </c>
-      <c r="E369" s="4"/>
-      <c r="F369" s="33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B370" s="4">
-        <v>197</v>
-      </c>
-      <c r="C370" s="4">
-        <v>197</v>
-      </c>
-      <c r="E370" s="4"/>
-      <c r="F370" s="33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B371" s="4">
-        <v>198</v>
-      </c>
-      <c r="C371" s="4">
-        <v>198</v>
-      </c>
-      <c r="E371" s="4"/>
-      <c r="F371" s="33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B372" s="4">
-        <v>199</v>
-      </c>
-      <c r="C372" s="4">
-        <v>199</v>
-      </c>
-      <c r="E372" s="4"/>
-      <c r="F372" s="33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B373" s="4">
-        <v>200</v>
-      </c>
-      <c r="C373" s="4">
-        <v>200</v>
-      </c>
-      <c r="E373" s="4"/>
-      <c r="F373" s="33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B374" s="4">
-        <v>201</v>
-      </c>
-      <c r="C374" s="4">
-        <v>201</v>
-      </c>
-      <c r="E374" s="4"/>
-      <c r="F374" s="33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B375" s="4">
-        <v>202</v>
-      </c>
-      <c r="C375" s="4">
-        <v>202</v>
-      </c>
-      <c r="E375" s="4"/>
-      <c r="F375" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B376" s="4">
-        <v>203</v>
-      </c>
-      <c r="C376" s="4">
-        <v>203</v>
-      </c>
-      <c r="E376" s="4"/>
-      <c r="F376" s="33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B377" s="4">
-        <v>204</v>
-      </c>
-      <c r="C377" s="4">
-        <v>204</v>
-      </c>
-      <c r="E377" s="4"/>
-      <c r="F377" s="33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B378" s="4">
-        <v>205</v>
-      </c>
-      <c r="C378" s="4">
-        <v>205</v>
-      </c>
-      <c r="E378" s="4"/>
-      <c r="F378" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B379" s="4">
-        <v>206</v>
-      </c>
-      <c r="C379" s="4">
-        <v>206</v>
-      </c>
-      <c r="E379" s="4"/>
-      <c r="F379" s="33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B380" s="4">
-        <v>207</v>
-      </c>
-      <c r="C380" s="4">
-        <v>207</v>
-      </c>
-      <c r="E380" s="4"/>
-      <c r="F380" s="33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B381" s="4">
-        <v>208</v>
-      </c>
-      <c r="C381" s="4">
-        <v>208</v>
-      </c>
-      <c r="E381" s="4"/>
-      <c r="F381" s="33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B382" s="4">
-        <v>209</v>
-      </c>
-      <c r="C382" s="4">
-        <v>209</v>
-      </c>
-      <c r="E382" s="4"/>
-      <c r="F382" s="33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B383" s="4">
-        <v>210</v>
-      </c>
-      <c r="C383" s="4">
-        <v>210</v>
-      </c>
-      <c r="E383" s="4"/>
-      <c r="F383" s="33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B384" s="4">
-        <v>211</v>
-      </c>
-      <c r="C384" s="4">
-        <v>211</v>
-      </c>
-      <c r="E384" s="4"/>
-      <c r="F384" s="33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B385" s="4">
-        <v>212</v>
-      </c>
-      <c r="C385" s="4">
-        <v>212</v>
-      </c>
-      <c r="E385" s="4"/>
-      <c r="F385" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B386" s="4">
-        <v>213</v>
-      </c>
-      <c r="C386" s="4">
-        <v>213</v>
-      </c>
-      <c r="E386" s="4"/>
-      <c r="F386" s="33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B387" s="4">
-        <v>214</v>
-      </c>
-      <c r="C387" s="4">
-        <v>214</v>
-      </c>
-      <c r="E387" s="4"/>
-      <c r="F387" s="33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B388" s="4">
-        <v>215</v>
-      </c>
-      <c r="C388" s="4">
-        <v>215</v>
-      </c>
-      <c r="E388" s="4"/>
-      <c r="F388" s="33" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B389" s="4">
-        <v>216</v>
-      </c>
-      <c r="C389" s="4">
-        <v>216</v>
-      </c>
-      <c r="E389" s="4"/>
-      <c r="F389" s="33" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B390" s="4">
-        <v>217</v>
-      </c>
-      <c r="C390" s="4">
-        <v>217</v>
-      </c>
-      <c r="E390" s="4"/>
-      <c r="F390" s="33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B391" s="4">
-        <v>218</v>
-      </c>
-      <c r="C391" s="4">
-        <v>218</v>
-      </c>
-      <c r="E391" s="4"/>
-      <c r="F391" s="33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B392" s="4">
-        <v>219</v>
-      </c>
-      <c r="C392" s="4">
-        <v>219</v>
-      </c>
-      <c r="E392" s="4"/>
-      <c r="F392" s="33" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B393" s="4">
-        <v>220</v>
-      </c>
-      <c r="C393" s="4">
-        <v>220</v>
-      </c>
-      <c r="E393" s="4"/>
-      <c r="F393" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B394" s="5">
-        <v>221</v>
-      </c>
-      <c r="C394" s="5">
-        <v>221</v>
-      </c>
-      <c r="F394" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B395" s="15">
-        <v>222</v>
-      </c>
-      <c r="C395" s="15">
-        <v>222</v>
-      </c>
-      <c r="F395" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B396" s="15">
-        <v>223</v>
-      </c>
-      <c r="C396" s="15">
-        <v>223</v>
-      </c>
-      <c r="F396" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B397" s="15">
-        <v>224</v>
-      </c>
-      <c r="C397" s="15">
-        <v>224</v>
-      </c>
-      <c r="F397" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B398" s="15">
-        <v>225</v>
-      </c>
-      <c r="C398" s="15">
-        <v>225</v>
-      </c>
-      <c r="F398" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B399" s="15">
-        <v>226</v>
-      </c>
-      <c r="C399" s="15">
-        <v>226</v>
-      </c>
-      <c r="F399" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B400" s="15">
-        <v>227</v>
-      </c>
-      <c r="C400" s="15">
-        <v>227</v>
-      </c>
-      <c r="F400" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B401" s="15">
-        <v>228</v>
-      </c>
-      <c r="C401" s="15">
-        <v>228</v>
-      </c>
-      <c r="F401" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B402" s="15">
-        <v>229</v>
-      </c>
-      <c r="C402" s="15">
-        <v>229</v>
-      </c>
-      <c r="F402" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B403" s="15">
-        <v>230</v>
-      </c>
-      <c r="C403" s="15">
-        <v>230</v>
-      </c>
-      <c r="F403" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B404" s="15">
-        <v>231</v>
-      </c>
-      <c r="C404" s="15">
-        <v>231</v>
-      </c>
-      <c r="F404" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B405" s="15">
-        <v>232</v>
-      </c>
-      <c r="C405" s="15">
-        <v>232</v>
-      </c>
-      <c r="F405" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B406" s="15">
-        <v>233</v>
-      </c>
-      <c r="C406" s="15">
-        <v>233</v>
-      </c>
-      <c r="F406" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B407" s="15">
-        <v>234</v>
-      </c>
-      <c r="C407" s="15">
-        <v>234</v>
-      </c>
-      <c r="F407" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B408" s="15">
-        <v>235</v>
-      </c>
-      <c r="C408" s="15">
-        <v>235</v>
-      </c>
-      <c r="F408" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B409" s="15">
-        <v>236</v>
-      </c>
-      <c r="C409" s="15">
-        <v>236</v>
-      </c>
-      <c r="F409" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B410" s="15">
-        <v>237</v>
-      </c>
-      <c r="C410" s="15">
-        <v>237</v>
-      </c>
-      <c r="F410" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B411" s="15">
-        <v>238</v>
-      </c>
-      <c r="C411" s="15">
-        <v>238</v>
-      </c>
-      <c r="F411" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B412" s="15">
-        <v>239</v>
-      </c>
-      <c r="C412" s="15">
-        <v>239</v>
-      </c>
-      <c r="F412" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B413" s="15">
-        <v>240</v>
-      </c>
-      <c r="C413" s="15">
-        <v>240</v>
-      </c>
-      <c r="F413" s="16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B414" s="15">
-        <v>241</v>
-      </c>
-      <c r="C414" s="15">
-        <v>241</v>
-      </c>
-      <c r="F414" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B415" s="15">
-        <v>242</v>
-      </c>
-      <c r="C415" s="15">
-        <v>242</v>
-      </c>
-      <c r="F415" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B416" s="15">
-        <v>243</v>
-      </c>
-      <c r="C416" s="15">
-        <v>243</v>
-      </c>
-      <c r="F416" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B417" s="15">
-        <v>244</v>
-      </c>
-      <c r="C417" s="15">
-        <v>244</v>
-      </c>
-      <c r="F417" s="16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="15"/>
+      <c r="C238" s="15"/>
+      <c r="F238" s="4"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B239" s="15"/>
+      <c r="C239" s="15"/>
+      <c r="F239" s="4"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="15"/>
+      <c r="C240" s="15"/>
+      <c r="F240" s="4"/>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B241" s="15"/>
+      <c r="C241" s="15"/>
+      <c r="F241" s="4"/>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B242" s="15"/>
+      <c r="C242" s="15"/>
+      <c r="F242" s="4"/>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B243" s="15"/>
+      <c r="C243" s="15"/>
+      <c r="F243" s="4"/>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B244" s="15"/>
+      <c r="C244" s="15"/>
+      <c r="F244" s="4"/>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B245" s="15"/>
+      <c r="C245" s="15"/>
+      <c r="F245" s="4"/>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B246" s="15"/>
+      <c r="C246" s="15"/>
+      <c r="F246" s="4"/>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B247" s="15"/>
+      <c r="C247" s="15"/>
+      <c r="F247" s="4"/>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B248" s="15"/>
+      <c r="C248" s="15"/>
+      <c r="F248" s="4"/>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B249" s="15"/>
+      <c r="C249" s="15"/>
+      <c r="F249" s="4"/>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B250" s="15"/>
+      <c r="C250" s="15"/>
+      <c r="F250" s="4"/>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B251" s="15"/>
+      <c r="C251" s="15"/>
+      <c r="F251" s="4"/>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B252" s="15"/>
+      <c r="C252" s="15"/>
+      <c r="F252" s="4"/>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B253" s="15"/>
+      <c r="C253" s="15"/>
+      <c r="F253" s="4"/>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B254" s="15"/>
+      <c r="C254" s="15"/>
+      <c r="F254" s="4"/>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B255" s="15"/>
+      <c r="C255" s="15"/>
+      <c r="F255" s="4"/>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B256" s="15"/>
+      <c r="C256" s="15"/>
+      <c r="F256" s="4"/>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B257" s="15"/>
+      <c r="C257" s="15"/>
+      <c r="F257" s="4"/>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B258" s="15"/>
+      <c r="C258" s="15"/>
+      <c r="F258" s="4"/>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B259" s="15"/>
+      <c r="C259" s="15"/>
+      <c r="F259" s="4"/>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B260" s="15"/>
+      <c r="C260" s="15"/>
+      <c r="F260" s="4"/>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B261" s="15"/>
+      <c r="C261" s="15"/>
+      <c r="F261" s="4"/>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B262" s="15"/>
+      <c r="C262" s="15"/>
+      <c r="F262" s="4"/>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B263" s="15"/>
+      <c r="C263" s="15"/>
+      <c r="F263" s="4"/>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B264" s="15"/>
+      <c r="C264" s="15"/>
+      <c r="F264" s="4"/>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B265" s="15"/>
+      <c r="C265" s="15"/>
+      <c r="F265" s="4"/>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B266" s="15"/>
+      <c r="C266" s="15"/>
+      <c r="F266" s="4"/>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B267" s="15"/>
+      <c r="C267" s="15"/>
+      <c r="F267" s="4"/>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B268" s="15"/>
+      <c r="C268" s="15"/>
+      <c r="F268" s="4"/>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B269" s="15"/>
+      <c r="C269" s="15"/>
+      <c r="F269" s="4"/>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B270" s="15"/>
+      <c r="C270" s="15"/>
+      <c r="F270" s="4"/>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B271" s="15"/>
+      <c r="C271" s="15"/>
+      <c r="F271" s="4"/>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B272" s="15"/>
+      <c r="C272" s="15"/>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B273" s="15"/>
+      <c r="C273" s="15"/>
+      <c r="F273" s="4"/>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B274" s="15"/>
+      <c r="C274" s="15"/>
+      <c r="F274" s="4"/>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B275" s="15"/>
+      <c r="C275" s="15"/>
+      <c r="F275" s="4"/>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B276" s="15"/>
+      <c r="C276" s="15"/>
+      <c r="F276" s="4"/>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B277" s="15"/>
+      <c r="C277" s="15"/>
+      <c r="F277" s="4"/>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B278" s="15"/>
+      <c r="C278" s="15"/>
+      <c r="F278" s="4"/>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B279" s="15"/>
+      <c r="C279" s="15"/>
+      <c r="F279" s="4"/>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B280" s="15"/>
+      <c r="C280" s="15"/>
+      <c r="F280" s="4"/>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B281" s="15"/>
+      <c r="C281" s="15"/>
+      <c r="F281" s="4"/>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B282" s="15"/>
+      <c r="C282" s="15"/>
+      <c r="F282" s="4"/>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B283" s="15"/>
+      <c r="C283" s="15"/>
+      <c r="F283" s="4"/>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B284" s="15"/>
+      <c r="C284" s="15"/>
+      <c r="F284" s="4"/>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B285" s="15"/>
+      <c r="C285" s="15"/>
+      <c r="F285" s="4"/>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B286" s="15"/>
+      <c r="C286" s="15"/>
+      <c r="F286" s="4"/>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B287" s="15"/>
+      <c r="C287" s="15"/>
+      <c r="F287" s="4"/>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B288" s="15"/>
+      <c r="C288" s="15"/>
+      <c r="F288" s="4"/>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B289" s="15"/>
+      <c r="C289" s="15"/>
+      <c r="F289" s="4"/>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B290" s="15"/>
+      <c r="C290" s="15"/>
+      <c r="F290" s="4"/>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B291" s="15"/>
+      <c r="C291" s="15"/>
+      <c r="F291" s="4"/>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B292" s="15"/>
+      <c r="C292" s="15"/>
+      <c r="F292" s="4"/>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B293" s="15"/>
+      <c r="C293" s="15"/>
+      <c r="F293" s="4"/>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B294" s="15"/>
+      <c r="C294" s="15"/>
+      <c r="F294" s="4"/>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B295" s="15"/>
+      <c r="C295" s="15"/>
+      <c r="F295" s="4"/>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B296" s="15"/>
+      <c r="C296" s="15"/>
+      <c r="F296" s="4"/>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B297" s="15"/>
+      <c r="C297" s="15"/>
+      <c r="F297" s="4"/>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B298" s="15"/>
+      <c r="C298" s="15"/>
+      <c r="F298" s="4"/>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B299" s="15"/>
+      <c r="C299" s="15"/>
+      <c r="F299" s="4"/>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B300" s="15"/>
+      <c r="C300" s="15"/>
+      <c r="F300" s="4"/>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B301" s="15"/>
+      <c r="C301" s="15"/>
+      <c r="F301" s="4"/>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B302" s="15"/>
+      <c r="C302" s="15"/>
+      <c r="F302" s="4"/>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B303" s="15"/>
+      <c r="C303" s="15"/>
+      <c r="F303" s="4"/>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B304" s="15"/>
+      <c r="C304" s="15"/>
+      <c r="F304" s="4"/>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B305" s="15"/>
+      <c r="C305" s="15"/>
+      <c r="F305" s="4"/>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B306" s="15"/>
+      <c r="C306" s="15"/>
+      <c r="F306" s="4"/>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B307" s="15"/>
+      <c r="C307" s="15"/>
+      <c r="F307" s="4"/>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B308" s="15"/>
+      <c r="C308" s="15"/>
+      <c r="F308" s="4"/>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B309" s="15"/>
+      <c r="C309" s="15"/>
+      <c r="F309" s="4"/>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B310" s="15"/>
+      <c r="C310" s="15"/>
+      <c r="F310" s="4"/>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B311" s="15"/>
+      <c r="C311" s="15"/>
+      <c r="F311" s="4"/>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B312" s="15"/>
+      <c r="C312" s="15"/>
+      <c r="F312" s="4"/>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B313" s="15"/>
+      <c r="C313" s="15"/>
+      <c r="F313" s="4"/>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B314" s="15"/>
+      <c r="C314" s="15"/>
+      <c r="F314" s="4"/>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B315" s="15"/>
+      <c r="C315" s="15"/>
+      <c r="F315" s="4"/>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B316" s="15"/>
+      <c r="C316" s="15"/>
+      <c r="F316" s="4"/>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B317" s="15"/>
+      <c r="C317" s="15"/>
+      <c r="F317" s="4"/>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B318" s="15"/>
+      <c r="C318" s="15"/>
+      <c r="F318" s="4"/>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B319" s="15"/>
+      <c r="C319" s="15"/>
+      <c r="F319" s="4"/>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B320" s="15"/>
+      <c r="C320" s="15"/>
+      <c r="F320" s="4"/>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B321" s="15"/>
+      <c r="C321" s="15"/>
+      <c r="F321" s="4"/>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B322" s="15"/>
+      <c r="C322" s="15"/>
+      <c r="F322" s="4"/>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B323" s="15"/>
+      <c r="C323" s="15"/>
+      <c r="F323" s="4"/>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B324" s="15"/>
+      <c r="C324" s="15"/>
+      <c r="F324" s="4"/>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B325" s="15"/>
+      <c r="C325" s="15"/>
+      <c r="F325" s="4"/>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B326" s="15"/>
+      <c r="C326" s="15"/>
+      <c r="F326" s="4"/>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B327" s="15"/>
+      <c r="C327" s="15"/>
+      <c r="F327" s="4"/>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B328" s="15"/>
+      <c r="C328" s="15"/>
+      <c r="F328" s="4"/>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B329" s="15"/>
+      <c r="C329" s="15"/>
+      <c r="F329" s="4"/>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B330" s="15"/>
+      <c r="C330" s="15"/>
+      <c r="F330" s="4"/>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B331" s="15"/>
+      <c r="C331" s="15"/>
+      <c r="F331" s="4"/>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B332" s="15"/>
+      <c r="C332" s="15"/>
+      <c r="F332" s="4"/>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B333" s="15"/>
+      <c r="C333" s="15"/>
+      <c r="F333" s="4"/>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B334" s="15"/>
+      <c r="C334" s="15"/>
+      <c r="F334" s="4"/>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B335" s="15"/>
+      <c r="C335" s="15"/>
+      <c r="F335" s="4"/>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B336" s="15"/>
+      <c r="C336" s="15"/>
+      <c r="F336" s="4"/>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B337" s="15"/>
+      <c r="C337" s="15"/>
+      <c r="F337" s="4"/>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B338" s="15"/>
+      <c r="C338" s="15"/>
+      <c r="F338" s="4"/>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B339" s="15"/>
+      <c r="C339" s="15"/>
+      <c r="F339" s="4"/>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B340" s="15"/>
+      <c r="C340" s="15"/>
+      <c r="F340" s="4"/>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B341" s="15"/>
+      <c r="C341" s="15"/>
+      <c r="F341" s="4"/>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B342" s="15"/>
+      <c r="C342" s="15"/>
+      <c r="F342" s="4"/>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B343" s="15"/>
+      <c r="C343" s="15"/>
+      <c r="F343" s="4"/>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B344" s="15"/>
+      <c r="C344" s="15"/>
+      <c r="F344" s="4"/>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B345" s="15"/>
+      <c r="C345" s="15"/>
+      <c r="F345" s="4"/>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B346" s="15"/>
+      <c r="C346" s="15"/>
+      <c r="F346" s="4"/>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B347" s="15"/>
+      <c r="C347" s="15"/>
+      <c r="F347" s="4"/>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B348" s="15"/>
+      <c r="C348" s="15"/>
+      <c r="F348" s="4"/>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B349" s="15"/>
+      <c r="C349" s="15"/>
+      <c r="F349" s="4"/>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B350" s="15"/>
+      <c r="C350" s="15"/>
+      <c r="F350" s="4"/>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B351" s="15"/>
+      <c r="C351" s="15"/>
+      <c r="F351" s="4"/>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B352" s="15"/>
+      <c r="C352" s="15"/>
+      <c r="F352" s="4"/>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B353" s="15"/>
+      <c r="C353" s="15"/>
+      <c r="F353" s="4"/>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B354" s="15"/>
+      <c r="C354" s="15"/>
+      <c r="F354" s="4"/>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B355" s="15"/>
+      <c r="C355" s="15"/>
+      <c r="F355" s="4"/>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B356" s="15"/>
+      <c r="C356" s="15"/>
+      <c r="F356" s="4"/>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B357" s="15"/>
+      <c r="C357" s="15"/>
+      <c r="F357" s="4"/>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B358" s="15"/>
+      <c r="C358" s="15"/>
+      <c r="F358" s="4"/>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B359" s="15"/>
+      <c r="C359" s="15"/>
+      <c r="F359" s="4"/>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B360" s="15"/>
+      <c r="C360" s="15"/>
+      <c r="F360" s="4"/>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B361" s="15"/>
+      <c r="C361" s="15"/>
+      <c r="F361" s="4"/>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B362" s="15"/>
+      <c r="C362" s="15"/>
+      <c r="F362" s="4"/>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B363" s="15"/>
+      <c r="C363" s="15"/>
+      <c r="F363" s="4"/>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B364" s="15"/>
+      <c r="C364" s="15"/>
+      <c r="F364" s="4"/>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B365" s="15"/>
+      <c r="C365" s="15"/>
+      <c r="F365" s="4"/>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B366" s="15"/>
+      <c r="C366" s="15"/>
+      <c r="F366" s="4"/>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B367" s="15"/>
+      <c r="C367" s="15"/>
+      <c r="F367" s="4"/>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B368" s="15"/>
+      <c r="C368" s="15"/>
+      <c r="F368" s="4"/>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B369" s="15"/>
+      <c r="C369" s="15"/>
+      <c r="F369" s="4"/>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B370" s="15"/>
+      <c r="C370" s="15"/>
+      <c r="F370" s="4"/>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B371" s="15"/>
+      <c r="C371" s="15"/>
+      <c r="F371" s="4"/>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B372" s="15"/>
+      <c r="C372" s="15"/>
+      <c r="F372" s="4"/>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B373" s="15"/>
+      <c r="C373" s="15"/>
+      <c r="F373" s="4"/>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B374" s="15"/>
+      <c r="C374" s="15"/>
+      <c r="F374" s="4"/>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B375" s="15"/>
+      <c r="C375" s="15"/>
+      <c r="F375" s="4"/>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B376" s="15"/>
+      <c r="C376" s="15"/>
+      <c r="F376" s="4"/>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B377" s="15"/>
+      <c r="C377" s="15"/>
+      <c r="F377" s="4"/>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B378" s="15"/>
+      <c r="C378" s="15"/>
+      <c r="F378" s="4"/>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B379" s="15"/>
+      <c r="C379" s="15"/>
+      <c r="F379" s="4"/>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B380" s="15"/>
+      <c r="C380" s="15"/>
+      <c r="F380" s="4"/>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B381" s="15"/>
+      <c r="C381" s="15"/>
+      <c r="F381" s="4"/>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B382" s="15"/>
+      <c r="C382" s="15"/>
+      <c r="F382" s="4"/>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B383" s="15"/>
+      <c r="C383" s="15"/>
+      <c r="F383" s="4"/>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B384" s="15"/>
+      <c r="C384" s="15"/>
+      <c r="F384" s="4"/>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B385" s="15"/>
+      <c r="C385" s="15"/>
+      <c r="F385" s="4"/>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B386" s="15"/>
+      <c r="C386" s="15"/>
+      <c r="F386" s="4"/>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B387" s="15"/>
+      <c r="C387" s="15"/>
+      <c r="F387" s="4"/>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B388" s="15"/>
+      <c r="C388" s="15"/>
+      <c r="F388" s="4"/>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B389" s="15"/>
+      <c r="C389" s="15"/>
+      <c r="F389" s="4"/>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B390" s="15"/>
+      <c r="C390" s="15"/>
+      <c r="F390" s="4"/>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B391" s="15"/>
+      <c r="C391" s="15"/>
+      <c r="F391" s="4"/>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B392" s="15"/>
+      <c r="C392" s="15"/>
+      <c r="F392" s="4"/>
+    </row>
+    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B393" s="15"/>
+      <c r="C393" s="15"/>
+      <c r="F393" s="4"/>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B394" s="15"/>
+      <c r="C394" s="15"/>
+      <c r="F394" s="4"/>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B395" s="15"/>
+      <c r="C395" s="15"/>
+      <c r="F395" s="4"/>
+    </row>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B396" s="15"/>
+      <c r="C396" s="15"/>
+      <c r="F396" s="4"/>
+    </row>
+    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B397" s="15"/>
+      <c r="C397" s="15"/>
+      <c r="F397" s="4"/>
+    </row>
+    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B398" s="15"/>
+      <c r="C398" s="15"/>
+      <c r="F398" s="4"/>
+    </row>
+    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B399" s="15"/>
+      <c r="C399" s="15"/>
+      <c r="F399" s="4"/>
+    </row>
+    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B400" s="15"/>
+      <c r="C400" s="15"/>
+      <c r="F400" s="4"/>
+    </row>
+    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B401" s="15"/>
+      <c r="C401" s="15"/>
+      <c r="F401" s="4"/>
+    </row>
+    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B402" s="15"/>
+      <c r="C402" s="15"/>
+      <c r="F402" s="4"/>
+    </row>
+    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B403" s="15"/>
+      <c r="C403" s="15"/>
+      <c r="F403" s="4"/>
+    </row>
+    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B404" s="15"/>
+      <c r="C404" s="15"/>
+      <c r="F404" s="4"/>
+    </row>
+    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B405" s="15"/>
+      <c r="C405" s="15"/>
+      <c r="F405" s="4"/>
+    </row>
+    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B406" s="15"/>
+      <c r="C406" s="15"/>
+      <c r="F406" s="4"/>
+    </row>
+    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B407" s="15"/>
+      <c r="C407" s="15"/>
+      <c r="F407" s="4"/>
+    </row>
+    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B408" s="15"/>
+      <c r="C408" s="15"/>
+      <c r="F408" s="4"/>
+    </row>
+    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B409" s="15"/>
+      <c r="C409" s="15"/>
+      <c r="F409" s="4"/>
+    </row>
+    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B410" s="15"/>
+      <c r="C410" s="15"/>
+      <c r="F410" s="4"/>
+    </row>
+    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B411" s="15"/>
+      <c r="C411" s="15"/>
+      <c r="F411" s="4"/>
+    </row>
+    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B412" s="15"/>
+      <c r="C412" s="15"/>
+      <c r="F412" s="4"/>
+    </row>
+    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B413" s="15"/>
+      <c r="C413" s="15"/>
+      <c r="F413" s="4"/>
+    </row>
+    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B414" s="15"/>
+      <c r="C414" s="15"/>
+      <c r="F414" s="4"/>
+    </row>
+    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B415" s="15"/>
+      <c r="C415" s="15"/>
+      <c r="F415" s="4"/>
+    </row>
+    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B416" s="15"/>
+      <c r="C416" s="15"/>
+      <c r="F416" s="4"/>
+    </row>
+    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B417" s="15"/>
+      <c r="C417" s="15"/>
+      <c r="F417" s="4"/>
+    </row>
+    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B418" s="15"/>
       <c r="C418" s="15"/>
       <c r="F418" s="4"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B419" s="15"/>
       <c r="C419" s="15"/>
       <c r="F419" s="4"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B420" s="15"/>
       <c r="C420" s="15"/>
       <c r="F420" s="4"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B421" s="15"/>
       <c r="C421" s="15"/>
       <c r="F421" s="4"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B422" s="15"/>
       <c r="C422" s="15"/>
       <c r="F422" s="4"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B423" s="15"/>
       <c r="C423" s="15"/>
       <c r="F423" s="4"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B424" s="15"/>
       <c r="C424" s="15"/>
       <c r="F424" s="4"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B425" s="15"/>
       <c r="C425" s="15"/>
       <c r="F425" s="4"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B426" s="15"/>
       <c r="C426" s="15"/>
       <c r="F426" s="4"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B427" s="15"/>
       <c r="C427" s="15"/>
       <c r="F427" s="4"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B428" s="15"/>
       <c r="C428" s="15"/>
       <c r="F428" s="4"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B429" s="15"/>
       <c r="C429" s="15"/>
       <c r="F429" s="4"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B430" s="15"/>
       <c r="C430" s="15"/>
       <c r="F430" s="4"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B431" s="15"/>
       <c r="C431" s="15"/>
       <c r="F431" s="4"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B432" s="15"/>
       <c r="C432" s="15"/>
       <c r="F432" s="4"/>
@@ -8538,906 +6925,6 @@
       <c r="B516" s="15"/>
       <c r="C516" s="15"/>
       <c r="F516" s="4"/>
-    </row>
-    <row r="517" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B517" s="15"/>
-      <c r="C517" s="15"/>
-      <c r="F517" s="4"/>
-    </row>
-    <row r="518" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B518" s="15"/>
-      <c r="C518" s="15"/>
-      <c r="F518" s="4"/>
-    </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B519" s="15"/>
-      <c r="C519" s="15"/>
-      <c r="F519" s="4"/>
-    </row>
-    <row r="520" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B520" s="15"/>
-      <c r="C520" s="15"/>
-      <c r="F520" s="4"/>
-    </row>
-    <row r="521" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B521" s="15"/>
-      <c r="C521" s="15"/>
-      <c r="F521" s="4"/>
-    </row>
-    <row r="522" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B522" s="15"/>
-      <c r="C522" s="15"/>
-      <c r="F522" s="4"/>
-    </row>
-    <row r="523" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B523" s="15"/>
-      <c r="C523" s="15"/>
-      <c r="F523" s="4"/>
-    </row>
-    <row r="524" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B524" s="15"/>
-      <c r="C524" s="15"/>
-      <c r="F524" s="4"/>
-    </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B525" s="15"/>
-      <c r="C525" s="15"/>
-      <c r="F525" s="4"/>
-    </row>
-    <row r="526" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B526" s="15"/>
-      <c r="C526" s="15"/>
-      <c r="F526" s="4"/>
-    </row>
-    <row r="527" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B527" s="15"/>
-      <c r="C527" s="15"/>
-      <c r="F527" s="4"/>
-    </row>
-    <row r="528" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B528" s="15"/>
-      <c r="C528" s="15"/>
-      <c r="F528" s="4"/>
-    </row>
-    <row r="529" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B529" s="15"/>
-      <c r="C529" s="15"/>
-      <c r="F529" s="4"/>
-    </row>
-    <row r="530" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B530" s="15"/>
-      <c r="C530" s="15"/>
-      <c r="F530" s="4"/>
-    </row>
-    <row r="531" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B531" s="15"/>
-      <c r="C531" s="15"/>
-      <c r="F531" s="4"/>
-    </row>
-    <row r="532" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B532" s="15"/>
-      <c r="C532" s="15"/>
-      <c r="F532" s="4"/>
-    </row>
-    <row r="533" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B533" s="15"/>
-      <c r="C533" s="15"/>
-      <c r="F533" s="4"/>
-    </row>
-    <row r="534" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B534" s="15"/>
-      <c r="C534" s="15"/>
-      <c r="F534" s="4"/>
-    </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B535" s="15"/>
-      <c r="C535" s="15"/>
-      <c r="F535" s="4"/>
-    </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B536" s="15"/>
-      <c r="C536" s="15"/>
-      <c r="F536" s="4"/>
-    </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B537" s="15"/>
-      <c r="C537" s="15"/>
-      <c r="F537" s="4"/>
-    </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B538" s="15"/>
-      <c r="C538" s="15"/>
-      <c r="F538" s="4"/>
-    </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B539" s="15"/>
-      <c r="C539" s="15"/>
-      <c r="F539" s="4"/>
-    </row>
-    <row r="540" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B540" s="15"/>
-      <c r="C540" s="15"/>
-      <c r="F540" s="4"/>
-    </row>
-    <row r="541" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B541" s="15"/>
-      <c r="C541" s="15"/>
-      <c r="F541" s="4"/>
-    </row>
-    <row r="542" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B542" s="15"/>
-      <c r="C542" s="15"/>
-      <c r="F542" s="4"/>
-    </row>
-    <row r="543" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B543" s="15"/>
-      <c r="C543" s="15"/>
-      <c r="F543" s="4"/>
-    </row>
-    <row r="544" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B544" s="15"/>
-      <c r="C544" s="15"/>
-      <c r="F544" s="4"/>
-    </row>
-    <row r="545" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B545" s="15"/>
-      <c r="C545" s="15"/>
-      <c r="F545" s="4"/>
-    </row>
-    <row r="546" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B546" s="15"/>
-      <c r="C546" s="15"/>
-      <c r="F546" s="4"/>
-    </row>
-    <row r="547" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B547" s="15"/>
-      <c r="C547" s="15"/>
-      <c r="F547" s="4"/>
-    </row>
-    <row r="548" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B548" s="15"/>
-      <c r="C548" s="15"/>
-      <c r="F548" s="4"/>
-    </row>
-    <row r="549" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B549" s="15"/>
-      <c r="C549" s="15"/>
-      <c r="F549" s="4"/>
-    </row>
-    <row r="550" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B550" s="15"/>
-      <c r="C550" s="15"/>
-      <c r="F550" s="4"/>
-    </row>
-    <row r="551" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B551" s="15"/>
-      <c r="C551" s="15"/>
-      <c r="F551" s="4"/>
-    </row>
-    <row r="552" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B552" s="15"/>
-      <c r="C552" s="15"/>
-      <c r="F552" s="4"/>
-    </row>
-    <row r="553" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B553" s="15"/>
-      <c r="C553" s="15"/>
-      <c r="F553" s="4"/>
-    </row>
-    <row r="554" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B554" s="15"/>
-      <c r="C554" s="15"/>
-      <c r="F554" s="4"/>
-    </row>
-    <row r="555" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B555" s="15"/>
-      <c r="C555" s="15"/>
-      <c r="F555" s="4"/>
-    </row>
-    <row r="556" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B556" s="15"/>
-      <c r="C556" s="15"/>
-      <c r="F556" s="4"/>
-    </row>
-    <row r="557" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B557" s="15"/>
-      <c r="C557" s="15"/>
-      <c r="F557" s="4"/>
-    </row>
-    <row r="558" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B558" s="15"/>
-      <c r="C558" s="15"/>
-      <c r="F558" s="4"/>
-    </row>
-    <row r="559" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B559" s="15"/>
-      <c r="C559" s="15"/>
-      <c r="F559" s="4"/>
-    </row>
-    <row r="560" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B560" s="15"/>
-      <c r="C560" s="15"/>
-      <c r="F560" s="4"/>
-    </row>
-    <row r="561" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B561" s="15"/>
-      <c r="C561" s="15"/>
-      <c r="F561" s="4"/>
-    </row>
-    <row r="562" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B562" s="15"/>
-      <c r="C562" s="15"/>
-      <c r="F562" s="4"/>
-    </row>
-    <row r="563" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B563" s="15"/>
-      <c r="C563" s="15"/>
-      <c r="F563" s="4"/>
-    </row>
-    <row r="564" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B564" s="15"/>
-      <c r="C564" s="15"/>
-      <c r="F564" s="4"/>
-    </row>
-    <row r="565" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B565" s="15"/>
-      <c r="C565" s="15"/>
-      <c r="F565" s="4"/>
-    </row>
-    <row r="566" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B566" s="15"/>
-      <c r="C566" s="15"/>
-      <c r="F566" s="4"/>
-    </row>
-    <row r="567" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B567" s="15"/>
-      <c r="C567" s="15"/>
-      <c r="F567" s="4"/>
-    </row>
-    <row r="568" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B568" s="15"/>
-      <c r="C568" s="15"/>
-      <c r="F568" s="4"/>
-    </row>
-    <row r="569" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B569" s="15"/>
-      <c r="C569" s="15"/>
-      <c r="F569" s="4"/>
-    </row>
-    <row r="570" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B570" s="15"/>
-      <c r="C570" s="15"/>
-      <c r="F570" s="4"/>
-    </row>
-    <row r="571" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B571" s="15"/>
-      <c r="C571" s="15"/>
-      <c r="F571" s="4"/>
-    </row>
-    <row r="572" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B572" s="15"/>
-      <c r="C572" s="15"/>
-      <c r="F572" s="4"/>
-    </row>
-    <row r="573" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B573" s="15"/>
-      <c r="C573" s="15"/>
-      <c r="F573" s="4"/>
-    </row>
-    <row r="574" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B574" s="15"/>
-      <c r="C574" s="15"/>
-      <c r="F574" s="4"/>
-    </row>
-    <row r="575" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B575" s="15"/>
-      <c r="C575" s="15"/>
-      <c r="F575" s="4"/>
-    </row>
-    <row r="576" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B576" s="15"/>
-      <c r="C576" s="15"/>
-      <c r="F576" s="4"/>
-    </row>
-    <row r="577" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B577" s="15"/>
-      <c r="C577" s="15"/>
-      <c r="F577" s="4"/>
-    </row>
-    <row r="578" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B578" s="15"/>
-      <c r="C578" s="15"/>
-      <c r="F578" s="4"/>
-    </row>
-    <row r="579" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B579" s="15"/>
-      <c r="C579" s="15"/>
-      <c r="F579" s="4"/>
-    </row>
-    <row r="580" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B580" s="15"/>
-      <c r="C580" s="15"/>
-      <c r="F580" s="4"/>
-    </row>
-    <row r="581" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B581" s="15"/>
-      <c r="C581" s="15"/>
-      <c r="F581" s="4"/>
-    </row>
-    <row r="582" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B582" s="15"/>
-      <c r="C582" s="15"/>
-      <c r="F582" s="4"/>
-    </row>
-    <row r="583" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B583" s="15"/>
-      <c r="C583" s="15"/>
-      <c r="F583" s="4"/>
-    </row>
-    <row r="584" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B584" s="15"/>
-      <c r="C584" s="15"/>
-      <c r="F584" s="4"/>
-    </row>
-    <row r="585" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B585" s="15"/>
-      <c r="C585" s="15"/>
-      <c r="F585" s="4"/>
-    </row>
-    <row r="586" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B586" s="15"/>
-      <c r="C586" s="15"/>
-      <c r="F586" s="4"/>
-    </row>
-    <row r="587" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B587" s="15"/>
-      <c r="C587" s="15"/>
-      <c r="F587" s="4"/>
-    </row>
-    <row r="588" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B588" s="15"/>
-      <c r="C588" s="15"/>
-      <c r="F588" s="4"/>
-    </row>
-    <row r="589" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B589" s="15"/>
-      <c r="C589" s="15"/>
-      <c r="F589" s="4"/>
-    </row>
-    <row r="590" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B590" s="15"/>
-      <c r="C590" s="15"/>
-      <c r="F590" s="4"/>
-    </row>
-    <row r="591" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B591" s="15"/>
-      <c r="C591" s="15"/>
-      <c r="F591" s="4"/>
-    </row>
-    <row r="592" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B592" s="15"/>
-      <c r="C592" s="15"/>
-      <c r="F592" s="4"/>
-    </row>
-    <row r="593" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B593" s="15"/>
-      <c r="C593" s="15"/>
-      <c r="F593" s="4"/>
-    </row>
-    <row r="594" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B594" s="15"/>
-      <c r="C594" s="15"/>
-      <c r="F594" s="4"/>
-    </row>
-    <row r="595" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B595" s="15"/>
-      <c r="C595" s="15"/>
-      <c r="F595" s="4"/>
-    </row>
-    <row r="596" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B596" s="15"/>
-      <c r="C596" s="15"/>
-      <c r="F596" s="4"/>
-    </row>
-    <row r="597" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B597" s="15"/>
-      <c r="C597" s="15"/>
-      <c r="F597" s="4"/>
-    </row>
-    <row r="598" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B598" s="15"/>
-      <c r="C598" s="15"/>
-      <c r="F598" s="4"/>
-    </row>
-    <row r="599" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B599" s="15"/>
-      <c r="C599" s="15"/>
-      <c r="F599" s="4"/>
-    </row>
-    <row r="600" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B600" s="15"/>
-      <c r="C600" s="15"/>
-      <c r="F600" s="4"/>
-    </row>
-    <row r="601" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B601" s="15"/>
-      <c r="C601" s="15"/>
-      <c r="F601" s="4"/>
-    </row>
-    <row r="602" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B602" s="15"/>
-      <c r="C602" s="15"/>
-      <c r="F602" s="4"/>
-    </row>
-    <row r="603" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B603" s="15"/>
-      <c r="C603" s="15"/>
-      <c r="F603" s="4"/>
-    </row>
-    <row r="604" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B604" s="15"/>
-      <c r="C604" s="15"/>
-      <c r="F604" s="4"/>
-    </row>
-    <row r="605" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B605" s="15"/>
-      <c r="C605" s="15"/>
-      <c r="F605" s="4"/>
-    </row>
-    <row r="606" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B606" s="15"/>
-      <c r="C606" s="15"/>
-      <c r="F606" s="4"/>
-    </row>
-    <row r="607" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B607" s="15"/>
-      <c r="C607" s="15"/>
-      <c r="F607" s="4"/>
-    </row>
-    <row r="608" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B608" s="15"/>
-      <c r="C608" s="15"/>
-      <c r="F608" s="4"/>
-    </row>
-    <row r="609" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B609" s="15"/>
-      <c r="C609" s="15"/>
-      <c r="F609" s="4"/>
-    </row>
-    <row r="610" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B610" s="15"/>
-      <c r="C610" s="15"/>
-      <c r="F610" s="4"/>
-    </row>
-    <row r="611" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B611" s="15"/>
-      <c r="C611" s="15"/>
-      <c r="F611" s="4"/>
-    </row>
-    <row r="612" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B612" s="15"/>
-      <c r="C612" s="15"/>
-      <c r="F612" s="4"/>
-    </row>
-    <row r="613" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B613" s="15"/>
-      <c r="C613" s="15"/>
-      <c r="F613" s="4"/>
-    </row>
-    <row r="614" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B614" s="15"/>
-      <c r="C614" s="15"/>
-      <c r="F614" s="4"/>
-    </row>
-    <row r="615" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B615" s="15"/>
-      <c r="C615" s="15"/>
-      <c r="F615" s="4"/>
-    </row>
-    <row r="616" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B616" s="15"/>
-      <c r="C616" s="15"/>
-      <c r="F616" s="4"/>
-    </row>
-    <row r="617" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B617" s="15"/>
-      <c r="C617" s="15"/>
-      <c r="F617" s="4"/>
-    </row>
-    <row r="618" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B618" s="15"/>
-      <c r="C618" s="15"/>
-      <c r="F618" s="4"/>
-    </row>
-    <row r="619" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B619" s="15"/>
-      <c r="C619" s="15"/>
-      <c r="F619" s="4"/>
-    </row>
-    <row r="620" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B620" s="15"/>
-      <c r="C620" s="15"/>
-      <c r="F620" s="4"/>
-    </row>
-    <row r="621" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B621" s="15"/>
-      <c r="C621" s="15"/>
-      <c r="F621" s="4"/>
-    </row>
-    <row r="622" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B622" s="15"/>
-      <c r="C622" s="15"/>
-      <c r="F622" s="4"/>
-    </row>
-    <row r="623" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B623" s="15"/>
-      <c r="C623" s="15"/>
-      <c r="F623" s="4"/>
-    </row>
-    <row r="624" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B624" s="15"/>
-      <c r="C624" s="15"/>
-      <c r="F624" s="4"/>
-    </row>
-    <row r="625" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B625" s="15"/>
-      <c r="C625" s="15"/>
-      <c r="F625" s="4"/>
-    </row>
-    <row r="626" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B626" s="15"/>
-      <c r="C626" s="15"/>
-      <c r="F626" s="4"/>
-    </row>
-    <row r="627" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B627" s="15"/>
-      <c r="C627" s="15"/>
-      <c r="F627" s="4"/>
-    </row>
-    <row r="628" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B628" s="15"/>
-      <c r="C628" s="15"/>
-      <c r="F628" s="4"/>
-    </row>
-    <row r="629" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B629" s="15"/>
-      <c r="C629" s="15"/>
-      <c r="F629" s="4"/>
-    </row>
-    <row r="630" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B630" s="15"/>
-      <c r="C630" s="15"/>
-      <c r="F630" s="4"/>
-    </row>
-    <row r="631" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B631" s="15"/>
-      <c r="C631" s="15"/>
-      <c r="F631" s="4"/>
-    </row>
-    <row r="632" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B632" s="15"/>
-      <c r="C632" s="15"/>
-      <c r="F632" s="4"/>
-    </row>
-    <row r="633" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B633" s="15"/>
-      <c r="C633" s="15"/>
-      <c r="F633" s="4"/>
-    </row>
-    <row r="634" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B634" s="15"/>
-      <c r="C634" s="15"/>
-      <c r="F634" s="4"/>
-    </row>
-    <row r="635" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B635" s="15"/>
-      <c r="C635" s="15"/>
-      <c r="F635" s="4"/>
-    </row>
-    <row r="636" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B636" s="15"/>
-      <c r="C636" s="15"/>
-      <c r="F636" s="4"/>
-    </row>
-    <row r="637" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B637" s="15"/>
-      <c r="C637" s="15"/>
-      <c r="F637" s="4"/>
-    </row>
-    <row r="638" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B638" s="15"/>
-      <c r="C638" s="15"/>
-      <c r="F638" s="4"/>
-    </row>
-    <row r="639" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B639" s="15"/>
-      <c r="C639" s="15"/>
-      <c r="F639" s="4"/>
-    </row>
-    <row r="640" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B640" s="15"/>
-      <c r="C640" s="15"/>
-      <c r="F640" s="4"/>
-    </row>
-    <row r="641" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B641" s="15"/>
-      <c r="C641" s="15"/>
-      <c r="F641" s="4"/>
-    </row>
-    <row r="642" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B642" s="15"/>
-      <c r="C642" s="15"/>
-      <c r="F642" s="4"/>
-    </row>
-    <row r="643" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B643" s="15"/>
-      <c r="C643" s="15"/>
-      <c r="F643" s="4"/>
-    </row>
-    <row r="644" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B644" s="15"/>
-      <c r="C644" s="15"/>
-      <c r="F644" s="4"/>
-    </row>
-    <row r="645" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B645" s="15"/>
-      <c r="C645" s="15"/>
-      <c r="F645" s="4"/>
-    </row>
-    <row r="646" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B646" s="15"/>
-      <c r="C646" s="15"/>
-      <c r="F646" s="4"/>
-    </row>
-    <row r="647" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B647" s="15"/>
-      <c r="C647" s="15"/>
-      <c r="F647" s="4"/>
-    </row>
-    <row r="648" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B648" s="15"/>
-      <c r="C648" s="15"/>
-      <c r="F648" s="4"/>
-    </row>
-    <row r="649" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B649" s="15"/>
-      <c r="C649" s="15"/>
-      <c r="F649" s="4"/>
-    </row>
-    <row r="650" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B650" s="15"/>
-      <c r="C650" s="15"/>
-      <c r="F650" s="4"/>
-    </row>
-    <row r="651" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B651" s="15"/>
-      <c r="C651" s="15"/>
-      <c r="F651" s="4"/>
-    </row>
-    <row r="652" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B652" s="15"/>
-      <c r="C652" s="15"/>
-      <c r="F652" s="4"/>
-    </row>
-    <row r="653" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B653" s="15"/>
-      <c r="C653" s="15"/>
-      <c r="F653" s="4"/>
-    </row>
-    <row r="654" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B654" s="15"/>
-      <c r="C654" s="15"/>
-      <c r="F654" s="4"/>
-    </row>
-    <row r="655" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B655" s="15"/>
-      <c r="C655" s="15"/>
-      <c r="F655" s="4"/>
-    </row>
-    <row r="656" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B656" s="15"/>
-      <c r="C656" s="15"/>
-      <c r="F656" s="4"/>
-    </row>
-    <row r="657" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B657" s="15"/>
-      <c r="C657" s="15"/>
-      <c r="F657" s="4"/>
-    </row>
-    <row r="658" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B658" s="15"/>
-      <c r="C658" s="15"/>
-      <c r="F658" s="4"/>
-    </row>
-    <row r="659" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B659" s="15"/>
-      <c r="C659" s="15"/>
-      <c r="F659" s="4"/>
-    </row>
-    <row r="660" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B660" s="15"/>
-      <c r="C660" s="15"/>
-      <c r="F660" s="4"/>
-    </row>
-    <row r="661" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B661" s="15"/>
-      <c r="C661" s="15"/>
-      <c r="F661" s="4"/>
-    </row>
-    <row r="662" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B662" s="15"/>
-      <c r="C662" s="15"/>
-      <c r="F662" s="4"/>
-    </row>
-    <row r="663" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B663" s="15"/>
-      <c r="C663" s="15"/>
-      <c r="F663" s="4"/>
-    </row>
-    <row r="664" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B664" s="15"/>
-      <c r="C664" s="15"/>
-      <c r="F664" s="4"/>
-    </row>
-    <row r="665" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B665" s="15"/>
-      <c r="C665" s="15"/>
-      <c r="F665" s="4"/>
-    </row>
-    <row r="666" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B666" s="15"/>
-      <c r="C666" s="15"/>
-      <c r="F666" s="4"/>
-    </row>
-    <row r="667" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B667" s="15"/>
-      <c r="C667" s="15"/>
-      <c r="F667" s="4"/>
-    </row>
-    <row r="668" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B668" s="15"/>
-      <c r="C668" s="15"/>
-      <c r="F668" s="4"/>
-    </row>
-    <row r="669" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B669" s="15"/>
-      <c r="C669" s="15"/>
-      <c r="F669" s="4"/>
-    </row>
-    <row r="670" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B670" s="15"/>
-      <c r="C670" s="15"/>
-      <c r="F670" s="4"/>
-    </row>
-    <row r="671" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B671" s="15"/>
-      <c r="C671" s="15"/>
-      <c r="F671" s="4"/>
-    </row>
-    <row r="672" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B672" s="15"/>
-      <c r="C672" s="15"/>
-      <c r="F672" s="4"/>
-    </row>
-    <row r="673" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B673" s="15"/>
-      <c r="C673" s="15"/>
-      <c r="F673" s="4"/>
-    </row>
-    <row r="674" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B674" s="15"/>
-      <c r="C674" s="15"/>
-      <c r="F674" s="4"/>
-    </row>
-    <row r="675" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B675" s="15"/>
-      <c r="C675" s="15"/>
-      <c r="F675" s="4"/>
-    </row>
-    <row r="676" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B676" s="15"/>
-      <c r="C676" s="15"/>
-      <c r="F676" s="4"/>
-    </row>
-    <row r="677" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B677" s="15"/>
-      <c r="C677" s="15"/>
-      <c r="F677" s="4"/>
-    </row>
-    <row r="678" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B678" s="15"/>
-      <c r="C678" s="15"/>
-      <c r="F678" s="4"/>
-    </row>
-    <row r="679" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B679" s="15"/>
-      <c r="C679" s="15"/>
-      <c r="F679" s="4"/>
-    </row>
-    <row r="680" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B680" s="15"/>
-      <c r="C680" s="15"/>
-      <c r="F680" s="4"/>
-    </row>
-    <row r="681" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B681" s="15"/>
-      <c r="C681" s="15"/>
-      <c r="F681" s="4"/>
-    </row>
-    <row r="682" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B682" s="15"/>
-      <c r="C682" s="15"/>
-      <c r="F682" s="4"/>
-    </row>
-    <row r="683" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B683" s="15"/>
-      <c r="C683" s="15"/>
-      <c r="F683" s="4"/>
-    </row>
-    <row r="684" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B684" s="15"/>
-      <c r="C684" s="15"/>
-      <c r="F684" s="4"/>
-    </row>
-    <row r="685" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B685" s="15"/>
-      <c r="C685" s="15"/>
-      <c r="F685" s="4"/>
-    </row>
-    <row r="686" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B686" s="15"/>
-      <c r="C686" s="15"/>
-      <c r="F686" s="4"/>
-    </row>
-    <row r="687" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B687" s="15"/>
-      <c r="C687" s="15"/>
-      <c r="F687" s="4"/>
-    </row>
-    <row r="688" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B688" s="15"/>
-      <c r="C688" s="15"/>
-      <c r="F688" s="4"/>
-    </row>
-    <row r="689" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B689" s="15"/>
-      <c r="C689" s="15"/>
-      <c r="F689" s="4"/>
-    </row>
-    <row r="690" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B690" s="15"/>
-      <c r="C690" s="15"/>
-      <c r="F690" s="4"/>
-    </row>
-    <row r="691" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B691" s="15"/>
-      <c r="C691" s="15"/>
-      <c r="F691" s="4"/>
-    </row>
-    <row r="692" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B692" s="15"/>
-      <c r="C692" s="15"/>
-      <c r="F692" s="4"/>
-    </row>
-    <row r="693" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B693" s="15"/>
-      <c r="C693" s="15"/>
-      <c r="F693" s="4"/>
-    </row>
-    <row r="694" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B694" s="15"/>
-      <c r="C694" s="15"/>
-      <c r="F694" s="4"/>
-    </row>
-    <row r="695" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B695" s="15"/>
-      <c r="C695" s="15"/>
-      <c r="F695" s="4"/>
-    </row>
-    <row r="696" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B696" s="15"/>
-      <c r="C696" s="15"/>
-      <c r="F696" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -9493,8 +6980,8 @@
   <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13195,6 +10682,1719 @@
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB02FF5B-121B-42FA-812D-B0EEC01DF1E4}">
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L3" t="s">
+        <v>303</v>
+      </c>
+      <c r="M3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4" t="s">
+        <v>274</v>
+      </c>
+      <c r="M4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" t="s">
+        <v>274</v>
+      </c>
+      <c r="M5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6">
+        <v>105</v>
+      </c>
+      <c r="I6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L6" t="s">
+        <v>283</v>
+      </c>
+      <c r="M6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>107</v>
+      </c>
+      <c r="I8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J8" t="s">
+        <v>273</v>
+      </c>
+      <c r="L8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9">
+        <v>108</v>
+      </c>
+      <c r="I9" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" t="s">
+        <v>272</v>
+      </c>
+      <c r="L9" t="s">
+        <v>292</v>
+      </c>
+      <c r="M9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10">
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J10" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" t="s">
+        <v>292</v>
+      </c>
+      <c r="M10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11">
+        <v>110</v>
+      </c>
+      <c r="I11" t="s">
+        <v>264</v>
+      </c>
+      <c r="J11" t="s">
+        <v>274</v>
+      </c>
+      <c r="L11" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12">
+        <v>111</v>
+      </c>
+      <c r="I12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" t="s">
+        <v>275</v>
+      </c>
+      <c r="L12" t="s">
+        <v>284</v>
+      </c>
+      <c r="M12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13">
+        <v>112</v>
+      </c>
+      <c r="I13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13" t="s">
+        <v>276</v>
+      </c>
+      <c r="L13" t="s">
+        <v>353</v>
+      </c>
+      <c r="M13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14">
+        <v>113</v>
+      </c>
+      <c r="I14" t="s">
+        <v>264</v>
+      </c>
+      <c r="J14" t="s">
+        <v>277</v>
+      </c>
+      <c r="L14" t="s">
+        <v>293</v>
+      </c>
+      <c r="M14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15">
+        <v>114</v>
+      </c>
+      <c r="I15" t="s">
+        <v>264</v>
+      </c>
+      <c r="J15" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" t="s">
+        <v>294</v>
+      </c>
+      <c r="M15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16">
+        <v>115</v>
+      </c>
+      <c r="I16" t="s">
+        <v>264</v>
+      </c>
+      <c r="J16" t="s">
+        <v>278</v>
+      </c>
+      <c r="L16" t="s">
+        <v>195</v>
+      </c>
+      <c r="M16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J17" t="s">
+        <v>279</v>
+      </c>
+      <c r="L17" t="s">
+        <v>271</v>
+      </c>
+      <c r="M17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
+        <v>264</v>
+      </c>
+      <c r="J18" t="s">
+        <v>280</v>
+      </c>
+      <c r="L18" t="s">
+        <v>271</v>
+      </c>
+      <c r="M18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19">
+        <v>118</v>
+      </c>
+      <c r="I19" t="s">
+        <v>264</v>
+      </c>
+      <c r="J19" t="s">
+        <v>354</v>
+      </c>
+      <c r="L19" t="s">
+        <v>275</v>
+      </c>
+      <c r="M19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20">
+        <v>119</v>
+      </c>
+      <c r="I20" t="s">
+        <v>264</v>
+      </c>
+      <c r="J20" t="s">
+        <v>355</v>
+      </c>
+      <c r="L20" t="s">
+        <v>275</v>
+      </c>
+      <c r="M20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21">
+        <v>120</v>
+      </c>
+      <c r="I21" t="s">
+        <v>265</v>
+      </c>
+      <c r="J21" t="s">
+        <v>283</v>
+      </c>
+      <c r="L21" t="s">
+        <v>267</v>
+      </c>
+      <c r="M21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22">
+        <v>121</v>
+      </c>
+      <c r="I22" t="s">
+        <v>265</v>
+      </c>
+      <c r="J22" t="s">
+        <v>284</v>
+      </c>
+      <c r="L22" t="s">
+        <v>276</v>
+      </c>
+      <c r="M22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" t="s">
+        <v>321</v>
+      </c>
+      <c r="E23">
+        <v>122</v>
+      </c>
+      <c r="I23" t="s">
+        <v>265</v>
+      </c>
+      <c r="J23" t="s">
+        <v>353</v>
+      </c>
+      <c r="L23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E24">
+        <v>123</v>
+      </c>
+      <c r="I24" t="s">
+        <v>265</v>
+      </c>
+      <c r="J24" t="s">
+        <v>285</v>
+      </c>
+      <c r="L24" t="s">
+        <v>277</v>
+      </c>
+      <c r="M24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" t="s">
+        <v>323</v>
+      </c>
+      <c r="E25">
+        <v>124</v>
+      </c>
+      <c r="I25" t="s">
+        <v>265</v>
+      </c>
+      <c r="J25" t="s">
+        <v>286</v>
+      </c>
+      <c r="L25" t="s">
+        <v>268</v>
+      </c>
+      <c r="M25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" t="s">
+        <v>324</v>
+      </c>
+      <c r="E26">
+        <v>125</v>
+      </c>
+      <c r="I26" t="s">
+        <v>265</v>
+      </c>
+      <c r="J26" t="s">
+        <v>287</v>
+      </c>
+      <c r="L26" t="s">
+        <v>263</v>
+      </c>
+      <c r="M26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27">
+        <v>126</v>
+      </c>
+      <c r="I27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" t="s">
+        <v>291</v>
+      </c>
+      <c r="L27" t="s">
+        <v>263</v>
+      </c>
+      <c r="M27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" t="s">
+        <v>280</v>
+      </c>
+      <c r="D28" t="s">
+        <v>326</v>
+      </c>
+      <c r="E28">
+        <v>127</v>
+      </c>
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" t="s">
+        <v>288</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" t="s">
+        <v>354</v>
+      </c>
+      <c r="D29" t="s">
+        <v>327</v>
+      </c>
+      <c r="E29">
+        <v>128</v>
+      </c>
+      <c r="I29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" t="s">
+        <v>289</v>
+      </c>
+      <c r="L29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" t="s">
+        <v>328</v>
+      </c>
+      <c r="E30">
+        <v>129</v>
+      </c>
+      <c r="I30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" t="s">
+        <v>290</v>
+      </c>
+      <c r="L30" t="s">
+        <v>296</v>
+      </c>
+      <c r="M30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" t="s">
+        <v>355</v>
+      </c>
+      <c r="D31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E31">
+        <v>130</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>168</v>
+      </c>
+      <c r="L31" t="s">
+        <v>264</v>
+      </c>
+      <c r="M31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32">
+        <v>131</v>
+      </c>
+      <c r="I32" t="s">
+        <v>260</v>
+      </c>
+      <c r="J32" t="s">
+        <v>292</v>
+      </c>
+      <c r="L32" t="s">
+        <v>264</v>
+      </c>
+      <c r="M32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33">
+        <v>132</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>179</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" t="s">
+        <v>292</v>
+      </c>
+      <c r="D34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34">
+        <v>133</v>
+      </c>
+      <c r="I34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" t="s">
+        <v>293</v>
+      </c>
+      <c r="L34" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35">
+        <v>134</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s">
+        <v>357</v>
+      </c>
+      <c r="M35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36">
+        <v>135</v>
+      </c>
+      <c r="I36" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" t="s">
+        <v>195</v>
+      </c>
+      <c r="L36" t="s">
+        <v>273</v>
+      </c>
+      <c r="M36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37">
+        <v>136</v>
+      </c>
+      <c r="I37" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" t="s">
+        <v>356</v>
+      </c>
+      <c r="L37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38">
+        <v>137</v>
+      </c>
+      <c r="I38" t="s">
+        <v>260</v>
+      </c>
+      <c r="J38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>286</v>
+      </c>
+      <c r="M38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" t="s">
+        <v>356</v>
+      </c>
+      <c r="D39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39">
+        <v>138</v>
+      </c>
+      <c r="I39" t="s">
+        <v>260</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="L39" t="s">
+        <v>286</v>
+      </c>
+      <c r="M39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40">
+        <v>139</v>
+      </c>
+      <c r="I40" t="s">
+        <v>260</v>
+      </c>
+      <c r="J40" t="s">
+        <v>217</v>
+      </c>
+      <c r="L40" t="s">
+        <v>217</v>
+      </c>
+      <c r="M40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" t="s">
+        <v>357</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41">
+        <v>140</v>
+      </c>
+      <c r="I41" t="s">
+        <v>260</v>
+      </c>
+      <c r="J41" t="s">
+        <v>300</v>
+      </c>
+      <c r="L41" t="s">
+        <v>300</v>
+      </c>
+      <c r="M41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42">
+        <v>141</v>
+      </c>
+      <c r="I42" t="s">
+        <v>260</v>
+      </c>
+      <c r="J42" t="s">
+        <v>358</v>
+      </c>
+      <c r="L42" t="s">
+        <v>278</v>
+      </c>
+      <c r="M42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43">
+        <v>142</v>
+      </c>
+      <c r="I43" t="s">
+        <v>260</v>
+      </c>
+      <c r="J43" t="s">
+        <v>301</v>
+      </c>
+      <c r="L43" t="s">
+        <v>279</v>
+      </c>
+      <c r="M43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>262</v>
+      </c>
+      <c r="B44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" t="s">
+        <v>358</v>
+      </c>
+      <c r="D44" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44">
+        <v>143</v>
+      </c>
+      <c r="L44" t="s">
+        <v>287</v>
+      </c>
+      <c r="M44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" t="s">
+        <v>358</v>
+      </c>
+      <c r="D45" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45">
+        <v>144</v>
+      </c>
+      <c r="L45" t="s">
+        <v>272</v>
+      </c>
+      <c r="M45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" t="s">
+        <v>301</v>
+      </c>
+      <c r="D46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46">
+        <v>145</v>
+      </c>
+      <c r="L46" t="s">
+        <v>272</v>
+      </c>
+      <c r="M46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" t="s">
+        <v>303</v>
+      </c>
+      <c r="D47" t="s">
+        <v>303</v>
+      </c>
+      <c r="E47">
+        <v>146</v>
+      </c>
+      <c r="L47" t="s">
+        <v>291</v>
+      </c>
+      <c r="M47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48">
+        <v>147</v>
+      </c>
+      <c r="L48" t="s">
+        <v>288</v>
+      </c>
+      <c r="M48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" t="s">
+        <v>268</v>
+      </c>
+      <c r="D49" t="s">
+        <v>305</v>
+      </c>
+      <c r="E49">
+        <v>148</v>
+      </c>
+      <c r="L49" t="s">
+        <v>270</v>
+      </c>
+      <c r="M49" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" t="s">
+        <v>306</v>
+      </c>
+      <c r="E50">
+        <v>149</v>
+      </c>
+      <c r="L50" t="s">
+        <v>270</v>
+      </c>
+      <c r="M50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" t="s">
+        <v>307</v>
+      </c>
+      <c r="E51">
+        <v>150</v>
+      </c>
+      <c r="L51" t="s">
+        <v>280</v>
+      </c>
+      <c r="M51" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" t="s">
+        <v>270</v>
+      </c>
+      <c r="D52" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52">
+        <v>151</v>
+      </c>
+      <c r="L52" t="s">
+        <v>354</v>
+      </c>
+      <c r="M52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" t="s">
+        <v>263</v>
+      </c>
+      <c r="D53" t="s">
+        <v>308</v>
+      </c>
+      <c r="E53">
+        <v>152</v>
+      </c>
+      <c r="L53" t="s">
+        <v>354</v>
+      </c>
+      <c r="M53" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" t="s">
+        <v>309</v>
+      </c>
+      <c r="E54">
+        <v>153</v>
+      </c>
+      <c r="L54" t="s">
+        <v>289</v>
+      </c>
+      <c r="M54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" t="s">
+        <v>310</v>
+      </c>
+      <c r="E55">
+        <v>154</v>
+      </c>
+      <c r="L55" t="s">
+        <v>289</v>
+      </c>
+      <c r="M55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C56" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56">
+        <v>155</v>
+      </c>
+      <c r="L56" t="s">
+        <v>358</v>
+      </c>
+      <c r="M56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" t="s">
+        <v>272</v>
+      </c>
+      <c r="D57" t="s">
+        <v>311</v>
+      </c>
+      <c r="E57">
+        <v>156</v>
+      </c>
+      <c r="L57" t="s">
+        <v>358</v>
+      </c>
+      <c r="M57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" t="s">
+        <v>263</v>
+      </c>
+      <c r="D58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58">
+        <v>157</v>
+      </c>
+      <c r="L58" t="s">
+        <v>301</v>
+      </c>
+      <c r="M58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>261</v>
+      </c>
+      <c r="B59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" t="s">
+        <v>312</v>
+      </c>
+      <c r="E59">
+        <v>158</v>
+      </c>
+      <c r="L59" t="s">
+        <v>290</v>
+      </c>
+      <c r="M59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" t="s">
+        <v>313</v>
+      </c>
+      <c r="E60">
+        <v>159</v>
+      </c>
+      <c r="L60" t="s">
+        <v>290</v>
+      </c>
+      <c r="M60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" t="s">
+        <v>314</v>
+      </c>
+      <c r="E61">
+        <v>160</v>
+      </c>
+      <c r="L61" t="s">
+        <v>355</v>
+      </c>
+      <c r="M61" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:M61">
+    <sortCondition ref="L2:L61"/>
+    <sortCondition ref="M2:M61"/>
+  </sortState>
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">

--- a/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_1_school_202308.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_1_school_202308.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BD8C5A-D51B-4B71-B3AA-0A52AD3CCBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C1319-37B6-476E-A9C7-8E92E290568A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="498" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" tabRatio="498" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="362">
   <si>
     <t>type</t>
   </si>
@@ -1242,6 +1242,9 @@
   </si>
   <si>
     <t>Code ID</t>
+  </si>
+  <si>
+    <t>L.ISLAM</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1305,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1465,17 +1468,7 @@
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{905074DF-E6CD-42F2-BC02-EAD75E86698F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2419,7 +2412,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C222" sqref="C222"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3846,7 +3839,7 @@
         <v>77</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>359</v>
@@ -4673,7 +4666,7 @@
       </c>
       <c r="E180" s="4"/>
       <c r="F180" s="33" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">

--- a/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_1_school_202308.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_1_school_202308.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B104D040-2B5C-414F-8A94-92A4339D3BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B8319F-BA32-41D7-8163-99EB1FE08B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" tabRatio="498" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="498" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="361">
   <si>
     <t>type</t>
   </si>
@@ -869,9 +869,6 @@
     <t>SAIENSOUTOU</t>
   </si>
   <si>
-    <t>WORTOKHATY</t>
-  </si>
-  <si>
     <t>SAMBRAMBOUGOU</t>
   </si>
   <si>
@@ -1241,10 +1238,10 @@
     <t>NAFADI</t>
   </si>
   <si>
-    <t>(Août 2023) - 1. SCH/STH – Site V3.2</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_1_school_202308_v3_2</t>
+    <t>(Août 2023) - 1. SCH/STH – Site V3.3</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_1_school_202308_v3_3</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +1984,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="9"/>
@@ -2011,7 +2008,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
@@ -2035,7 +2032,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
@@ -2057,7 +2054,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="9"/>
@@ -2079,7 +2076,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
@@ -2175,7 +2172,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
@@ -2193,13 +2190,13 @@
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>330</v>
-      </c>
       <c r="C14" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
@@ -2220,10 +2217,10 @@
         <v>24</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
@@ -2247,7 +2244,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>23</v>
@@ -2287,7 +2284,7 @@
         <v>115</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="21"/>
@@ -2309,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
@@ -3080,35 +3077,35 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3130,10 +3127,10 @@
         <v>35</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D69" s="13"/>
     </row>
@@ -3142,10 +3139,10 @@
         <v>35</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D70" s="13"/>
     </row>
@@ -3154,10 +3151,10 @@
         <v>35</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D71" s="13"/>
     </row>
@@ -3166,10 +3163,10 @@
         <v>35</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D72" s="13"/>
     </row>
@@ -3182,13 +3179,13 @@
         <v>36</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,13 +3193,13 @@
         <v>36</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,13 +3207,13 @@
         <v>36</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3224,13 +3221,13 @@
         <v>36</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3238,13 +3235,13 @@
         <v>36</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3252,13 +3249,13 @@
         <v>36</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3266,13 +3263,13 @@
         <v>36</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D80" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,13 +3277,13 @@
         <v>36</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3294,13 +3291,13 @@
         <v>36</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,13 +3305,13 @@
         <v>36</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3322,13 +3319,13 @@
         <v>36</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D84" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3336,13 +3333,13 @@
         <v>36</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3350,13 +3347,13 @@
         <v>36</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3364,13 +3361,13 @@
         <v>36</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3378,13 +3375,13 @@
         <v>36</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3392,13 +3389,13 @@
         <v>36</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3406,13 +3403,13 @@
         <v>36</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3420,13 +3417,13 @@
         <v>36</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D91" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3434,13 +3431,13 @@
         <v>36</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3448,13 +3445,13 @@
         <v>36</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D93" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3462,13 +3459,13 @@
         <v>36</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3476,13 +3473,13 @@
         <v>36</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3490,13 +3487,13 @@
         <v>36</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3504,13 +3501,13 @@
         <v>36</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3518,13 +3515,13 @@
         <v>36</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3532,13 +3529,13 @@
         <v>36</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D99" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3546,13 +3543,13 @@
         <v>36</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3560,13 +3557,13 @@
         <v>36</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3574,13 +3571,13 @@
         <v>36</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3594,7 +3591,7 @@
         <v>165</v>
       </c>
       <c r="D103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3602,13 +3599,13 @@
         <v>36</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3622,7 +3619,7 @@
         <v>176</v>
       </c>
       <c r="D105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,13 +3627,13 @@
         <v>36</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3644,13 +3641,13 @@
         <v>36</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D107" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3664,7 +3661,7 @@
         <v>192</v>
       </c>
       <c r="D108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3672,13 +3669,13 @@
         <v>36</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3686,13 +3683,13 @@
         <v>36</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3700,13 +3697,13 @@
         <v>36</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3720,7 +3717,7 @@
         <v>213</v>
       </c>
       <c r="D112" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3728,13 +3725,13 @@
         <v>36</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,13 +3739,13 @@
         <v>36</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D114" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3756,13 +3753,13 @@
         <v>36</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D115" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3789,13 +3786,13 @@
         <v>76</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E118" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3803,13 +3800,13 @@
         <v>76</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3817,13 +3814,13 @@
         <v>76</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E120" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3831,13 +3828,13 @@
         <v>76</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E121" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3851,7 +3848,7 @@
         <v>142</v>
       </c>
       <c r="E122" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3865,7 +3862,7 @@
         <v>143</v>
       </c>
       <c r="E123" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3879,7 +3876,7 @@
         <v>172</v>
       </c>
       <c r="E124" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3893,7 +3890,7 @@
         <v>168</v>
       </c>
       <c r="E125" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3921,7 +3918,7 @@
         <v>144</v>
       </c>
       <c r="E127" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3935,7 +3932,7 @@
         <v>148</v>
       </c>
       <c r="E128" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3949,7 +3946,7 @@
         <v>186</v>
       </c>
       <c r="E129" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3963,7 +3960,7 @@
         <v>191</v>
       </c>
       <c r="E130" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3985,13 +3982,13 @@
         <v>76</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E132" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3999,13 +3996,13 @@
         <v>76</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E133" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4013,13 +4010,13 @@
         <v>76</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E134" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4027,13 +4024,13 @@
         <v>76</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E135" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4041,13 +4038,13 @@
         <v>76</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4055,13 +4052,13 @@
         <v>76</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4069,13 +4066,13 @@
         <v>76</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4083,13 +4080,13 @@
         <v>76</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4097,13 +4094,13 @@
         <v>76</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4111,13 +4108,13 @@
         <v>76</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4125,13 +4122,13 @@
         <v>76</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E142" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4139,13 +4136,13 @@
         <v>76</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E143" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4159,7 +4156,7 @@
         <v>198</v>
       </c>
       <c r="E144" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4167,13 +4164,13 @@
         <v>76</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E145" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4181,13 +4178,13 @@
         <v>76</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E146" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4195,13 +4192,13 @@
         <v>76</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E147" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4215,7 +4212,7 @@
         <v>145</v>
       </c>
       <c r="E148" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4223,13 +4220,13 @@
         <v>76</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E149" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4243,7 +4240,7 @@
         <v>208</v>
       </c>
       <c r="E150" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4251,13 +4248,13 @@
         <v>76</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E151" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4265,13 +4262,13 @@
         <v>76</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E152" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4285,7 +4282,7 @@
         <v>146</v>
       </c>
       <c r="E153" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4299,7 +4296,7 @@
         <v>147</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4321,13 +4318,13 @@
         <v>76</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4335,13 +4332,13 @@
         <v>76</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E157" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4349,13 +4346,13 @@
         <v>76</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E158" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4369,7 +4366,7 @@
         <v>149</v>
       </c>
       <c r="E159" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4377,13 +4374,13 @@
         <v>76</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E160" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4391,13 +4388,13 @@
         <v>76</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E161" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4411,7 +4408,7 @@
         <v>155</v>
       </c>
       <c r="E162" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4425,7 +4422,7 @@
         <v>150</v>
       </c>
       <c r="E163" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4433,13 +4430,13 @@
         <v>76</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E164" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4447,13 +4444,13 @@
         <v>76</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E165" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4461,13 +4458,13 @@
         <v>76</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E166" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4475,13 +4472,13 @@
         <v>76</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E167" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4489,13 +4486,13 @@
         <v>76</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E168" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4509,7 +4506,7 @@
         <v>151</v>
       </c>
       <c r="E169" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4523,7 +4520,7 @@
         <v>152</v>
       </c>
       <c r="E170" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4537,7 +4534,7 @@
         <v>233</v>
       </c>
       <c r="E171" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4551,7 +4548,7 @@
         <v>231</v>
       </c>
       <c r="E172" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4559,13 +4556,13 @@
         <v>76</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="E173" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4579,7 +4576,7 @@
         <v>153</v>
       </c>
       <c r="E174" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4593,7 +4590,7 @@
         <v>154</v>
       </c>
       <c r="E175" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4601,13 +4598,13 @@
         <v>76</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4658,7 +4655,7 @@
       </c>
       <c r="E180" s="4"/>
       <c r="F180" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4853,7 +4850,7 @@
       </c>
       <c r="E193" s="4"/>
       <c r="F193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4868,7 +4865,7 @@
       </c>
       <c r="E194" s="4"/>
       <c r="F194" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4883,7 +4880,7 @@
       </c>
       <c r="E195" s="4"/>
       <c r="F195" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4898,7 +4895,7 @@
       </c>
       <c r="E196" s="4"/>
       <c r="F196" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4913,7 +4910,7 @@
       </c>
       <c r="E197" s="4"/>
       <c r="F197" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4928,7 +4925,7 @@
       </c>
       <c r="E198" s="4"/>
       <c r="F198" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4943,7 +4940,7 @@
       </c>
       <c r="E199" s="4"/>
       <c r="F199" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4958,7 +4955,7 @@
       </c>
       <c r="E200" s="4"/>
       <c r="F200" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -4973,7 +4970,7 @@
       </c>
       <c r="E201" s="4"/>
       <c r="F201" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -4988,7 +4985,7 @@
       </c>
       <c r="E202" s="4"/>
       <c r="F202" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5003,7 +5000,7 @@
       </c>
       <c r="E203" s="4"/>
       <c r="F203" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5018,7 +5015,7 @@
       </c>
       <c r="E204" s="4"/>
       <c r="F204" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5033,7 +5030,7 @@
       </c>
       <c r="E205" s="4"/>
       <c r="F205" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5048,7 +5045,7 @@
       </c>
       <c r="E206" s="4"/>
       <c r="F206" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5063,7 +5060,7 @@
       </c>
       <c r="E207" s="4"/>
       <c r="F207" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5198,7 +5195,7 @@
       </c>
       <c r="E216" s="4"/>
       <c r="F216" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5243,7 +5240,7 @@
       </c>
       <c r="E219" s="4"/>
       <c r="F219" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5288,7 +5285,7 @@
       </c>
       <c r="E222" s="4"/>
       <c r="F222" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -5303,7 +5300,7 @@
       </c>
       <c r="E223" s="4"/>
       <c r="F223" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -5318,7 +5315,7 @@
       </c>
       <c r="E224" s="4"/>
       <c r="F224" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -5333,7 +5330,7 @@
       </c>
       <c r="E225" s="4"/>
       <c r="F225" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -5348,7 +5345,7 @@
       </c>
       <c r="E226" s="4"/>
       <c r="F226" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -5363,7 +5360,7 @@
       </c>
       <c r="E227" s="4"/>
       <c r="F227" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5378,7 +5375,7 @@
       </c>
       <c r="E228" s="4"/>
       <c r="F228" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -5393,7 +5390,7 @@
       </c>
       <c r="E229" s="4"/>
       <c r="F229" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5408,7 +5405,7 @@
       </c>
       <c r="E230" s="4"/>
       <c r="F230" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -5423,7 +5420,7 @@
       </c>
       <c r="E231" s="4"/>
       <c r="F231" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -5438,7 +5435,7 @@
       </c>
       <c r="E232" s="4"/>
       <c r="F232" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -5453,7 +5450,7 @@
       </c>
       <c r="E233" s="4"/>
       <c r="F233" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -5468,7 +5465,7 @@
       </c>
       <c r="E234" s="4"/>
       <c r="F234" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -5483,7 +5480,7 @@
       </c>
       <c r="E235" s="4"/>
       <c r="F235" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -5498,7 +5495,7 @@
       </c>
       <c r="E236" s="4"/>
       <c r="F236" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -5513,7 +5510,7 @@
       </c>
       <c r="E237" s="4"/>
       <c r="F237" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6945,10 +6942,10 @@
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>360</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>361</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -6965,8 +6962,8 @@
   <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7013,924 +7010,924 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E2">
         <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3">
         <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E4">
         <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E5">
         <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6">
         <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E7">
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E8">
         <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E9">
         <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E10">
         <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E11">
         <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E12">
         <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E13">
         <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E14">
         <v>113</v>
       </c>
       <c r="I14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E15">
         <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16">
         <v>115</v>
       </c>
       <c r="I16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E17">
         <v>116</v>
       </c>
       <c r="I17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E18">
         <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E19">
         <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E20">
         <v>119</v>
       </c>
       <c r="I20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E21">
         <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E22">
         <v>121</v>
       </c>
       <c r="I22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E23">
         <v>122</v>
       </c>
       <c r="I23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24">
         <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E25">
         <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
         <v>148</v>
       </c>
       <c r="L25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E26">
         <v>125</v>
       </c>
       <c r="I26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E27">
         <v>126</v>
       </c>
       <c r="I27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E28">
         <v>127</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E29">
         <v>128</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E30">
         <v>129</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E31">
         <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J31" t="s">
         <v>156</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E32">
         <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J32" t="s">
         <v>165</v>
       </c>
       <c r="L32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D33" t="s">
         <v>142</v>
@@ -7939,13 +7936,13 @@
         <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J33" t="s">
         <v>173</v>
       </c>
       <c r="L33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M33" t="s">
         <v>142</v>
@@ -7953,13 +7950,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D34" t="s">
         <v>143</v>
@@ -7968,13 +7965,13 @@
         <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s">
         <v>143</v>
@@ -7982,13 +7979,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D35" t="s">
         <v>144</v>
@@ -7997,13 +7994,13 @@
         <v>134</v>
       </c>
       <c r="I35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J35" t="s">
         <v>176</v>
       </c>
       <c r="L35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s">
         <v>144</v>
@@ -8011,13 +8008,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" t="s">
         <v>145</v>
@@ -8026,13 +8023,13 @@
         <v>135</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J36" t="s">
         <v>181</v>
       </c>
       <c r="L36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M36" t="s">
         <v>145</v>
@@ -8040,13 +8037,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D37" t="s">
         <v>146</v>
@@ -8055,13 +8052,13 @@
         <v>136</v>
       </c>
       <c r="I37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M37" t="s">
         <v>146</v>
@@ -8069,13 +8066,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D38" t="s">
         <v>147</v>
@@ -8084,13 +8081,13 @@
         <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M38" t="s">
         <v>147</v>
@@ -8098,10 +8095,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C39" t="s">
         <v>148</v>
@@ -8113,7 +8110,7 @@
         <v>138</v>
       </c>
       <c r="I39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J39" t="s">
         <v>192</v>
@@ -8127,13 +8124,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D40" t="s">
         <v>149</v>
@@ -8142,13 +8139,13 @@
         <v>139</v>
       </c>
       <c r="I40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M40" t="s">
         <v>149</v>
@@ -8156,13 +8153,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D41" t="s">
         <v>155</v>
@@ -8171,13 +8168,13 @@
         <v>140</v>
       </c>
       <c r="I41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M41" t="s">
         <v>155</v>
@@ -8185,13 +8182,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
         <v>150</v>
@@ -8200,13 +8197,13 @@
         <v>141</v>
       </c>
       <c r="I42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M42" t="s">
         <v>150</v>
@@ -8214,13 +8211,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D43" t="s">
         <v>151</v>
@@ -8229,13 +8226,13 @@
         <v>142</v>
       </c>
       <c r="I43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J43" t="s">
         <v>206</v>
       </c>
       <c r="L43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M43" t="s">
         <v>151</v>
@@ -8243,13 +8240,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D44" t="s">
         <v>152</v>
@@ -8258,13 +8255,13 @@
         <v>143</v>
       </c>
       <c r="I44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J44" t="s">
         <v>207</v>
       </c>
       <c r="L44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M44" t="s">
         <v>152</v>
@@ -8272,13 +8269,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D45" t="s">
         <v>153</v>
@@ -8287,13 +8284,13 @@
         <v>144</v>
       </c>
       <c r="I45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M45" t="s">
         <v>153</v>
@@ -8301,13 +8298,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D46" t="s">
         <v>154</v>
@@ -8316,13 +8313,13 @@
         <v>145</v>
       </c>
       <c r="I46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M46" t="s">
         <v>154</v>
@@ -8330,10 +8327,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C47" t="s">
         <v>156</v>
@@ -8345,7 +8342,7 @@
         <v>146</v>
       </c>
       <c r="I47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J47" t="s">
         <v>218</v>
@@ -8359,10 +8356,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C48" t="s">
         <v>156</v>
@@ -8374,10 +8371,10 @@
         <v>147</v>
       </c>
       <c r="I48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L48" t="s">
         <v>156</v>
@@ -8388,10 +8385,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s">
         <v>156</v>
@@ -8403,10 +8400,10 @@
         <v>148</v>
       </c>
       <c r="I49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L49" t="s">
         <v>156</v>
@@ -8417,10 +8414,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C50" t="s">
         <v>156</v>
@@ -8432,7 +8429,7 @@
         <v>149</v>
       </c>
       <c r="I50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J50" t="s">
         <v>232</v>
@@ -8446,10 +8443,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C51" t="s">
         <v>156</v>
@@ -8461,10 +8458,10 @@
         <v>150</v>
       </c>
       <c r="I51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L51" t="s">
         <v>156</v>
@@ -8475,10 +8472,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C52" t="s">
         <v>156</v>
@@ -8490,10 +8487,10 @@
         <v>151</v>
       </c>
       <c r="I52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L52" t="s">
         <v>156</v>
@@ -8504,10 +8501,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C53" t="s">
         <v>165</v>
@@ -8519,10 +8516,10 @@
         <v>152</v>
       </c>
       <c r="I53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L53" t="s">
         <v>165</v>
@@ -8533,10 +8530,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C54" t="s">
         <v>165</v>
@@ -8548,10 +8545,10 @@
         <v>153</v>
       </c>
       <c r="I54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L54" t="s">
         <v>165</v>
@@ -8562,10 +8559,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C55" t="s">
         <v>165</v>
@@ -8577,10 +8574,10 @@
         <v>154</v>
       </c>
       <c r="I55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L55" t="s">
         <v>165</v>
@@ -8591,10 +8588,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C56" t="s">
         <v>165</v>
@@ -8614,10 +8611,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C57" t="s">
         <v>165</v>
@@ -8637,10 +8634,10 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C58" t="s">
         <v>173</v>
@@ -8660,10 +8657,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C59" t="s">
         <v>173</v>
@@ -8683,10 +8680,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C60" t="s">
         <v>173</v>
@@ -8706,13 +8703,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D61" t="s">
         <v>172</v>
@@ -8721,7 +8718,7 @@
         <v>160</v>
       </c>
       <c r="L61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M61" t="s">
         <v>172</v>
@@ -8729,13 +8726,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C62" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D62" t="s">
         <v>168</v>
@@ -8744,7 +8741,7 @@
         <v>161</v>
       </c>
       <c r="L62" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M62" t="s">
         <v>168</v>
@@ -8752,13 +8749,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C63" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D63" t="s">
         <v>169</v>
@@ -8767,7 +8764,7 @@
         <v>162</v>
       </c>
       <c r="L63" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M63" t="s">
         <v>169</v>
@@ -8775,13 +8772,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D64" t="s">
         <v>171</v>
@@ -8790,7 +8787,7 @@
         <v>163</v>
       </c>
       <c r="L64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M64" t="s">
         <v>171</v>
@@ -8798,13 +8795,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D65" t="s">
         <v>167</v>
@@ -8813,7 +8810,7 @@
         <v>164</v>
       </c>
       <c r="L65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M65" t="s">
         <v>167</v>
@@ -8821,13 +8818,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D66" t="s">
         <v>170</v>
@@ -8836,7 +8833,7 @@
         <v>165</v>
       </c>
       <c r="L66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M66" t="s">
         <v>170</v>
@@ -8844,10 +8841,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C67" t="s">
         <v>176</v>
@@ -8867,10 +8864,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C68" t="s">
         <v>176</v>
@@ -8890,10 +8887,10 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C69" t="s">
         <v>176</v>
@@ -8913,10 +8910,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C70" t="s">
         <v>176</v>
@@ -8936,10 +8933,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C71" t="s">
         <v>181</v>
@@ -8959,10 +8956,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
         <v>181</v>
@@ -8982,10 +8979,10 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C73" t="s">
         <v>181</v>
@@ -9005,10 +9002,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C74" t="s">
         <v>181</v>
@@ -9028,10 +9025,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C75" t="s">
         <v>181</v>
@@ -9051,13 +9048,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D76" t="s">
         <v>185</v>
@@ -9066,7 +9063,7 @@
         <v>175</v>
       </c>
       <c r="L76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M76" t="s">
         <v>185</v>
@@ -9074,13 +9071,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D77" t="s">
         <v>186</v>
@@ -9089,7 +9086,7 @@
         <v>176</v>
       </c>
       <c r="L77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M77" t="s">
         <v>186</v>
@@ -9097,13 +9094,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D78" t="s">
         <v>188</v>
@@ -9112,7 +9109,7 @@
         <v>177</v>
       </c>
       <c r="L78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M78" t="s">
         <v>188</v>
@@ -9120,13 +9117,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D79" t="s">
         <v>187</v>
@@ -9135,7 +9132,7 @@
         <v>178</v>
       </c>
       <c r="L79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M79" t="s">
         <v>187</v>
@@ -9143,13 +9140,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D80" t="s">
         <v>189</v>
@@ -9158,7 +9155,7 @@
         <v>179</v>
       </c>
       <c r="L80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M80" t="s">
         <v>189</v>
@@ -9166,13 +9163,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D81" t="s">
         <v>191</v>
@@ -9181,7 +9178,7 @@
         <v>180</v>
       </c>
       <c r="L81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M81" t="s">
         <v>191</v>
@@ -9189,13 +9186,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
         <v>190</v>
@@ -9204,7 +9201,7 @@
         <v>181</v>
       </c>
       <c r="L82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M82" t="s">
         <v>190</v>
@@ -9212,10 +9209,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C83" t="s">
         <v>192</v>
@@ -9235,10 +9232,10 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C84" t="s">
         <v>192</v>
@@ -9258,10 +9255,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C85" t="s">
         <v>192</v>
@@ -9281,10 +9278,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C86" t="s">
         <v>192</v>
@@ -9304,10 +9301,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C87" t="s">
         <v>192</v>
@@ -9327,13 +9324,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D88" t="s">
         <v>198</v>
@@ -9342,7 +9339,7 @@
         <v>187</v>
       </c>
       <c r="L88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M88" t="s">
         <v>198</v>
@@ -9350,13 +9347,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D89" t="s">
         <v>197</v>
@@ -9365,7 +9362,7 @@
         <v>188</v>
       </c>
       <c r="L89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M89" t="s">
         <v>197</v>
@@ -9373,13 +9370,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C90" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D90" t="s">
         <v>199</v>
@@ -9388,7 +9385,7 @@
         <v>189</v>
       </c>
       <c r="L90" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M90" t="s">
         <v>199</v>
@@ -9396,13 +9393,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D91" t="s">
         <v>201</v>
@@ -9411,7 +9408,7 @@
         <v>190</v>
       </c>
       <c r="L91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M91" t="s">
         <v>201</v>
@@ -9419,36 +9416,36 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E92">
         <v>191</v>
       </c>
       <c r="L92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D93" t="s">
         <v>200</v>
@@ -9457,7 +9454,7 @@
         <v>192</v>
       </c>
       <c r="L93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M93" t="s">
         <v>200</v>
@@ -9465,13 +9462,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D94" t="s">
         <v>202</v>
@@ -9480,7 +9477,7 @@
         <v>193</v>
       </c>
       <c r="L94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M94" t="s">
         <v>202</v>
@@ -9488,13 +9485,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C95" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D95" t="s">
         <v>203</v>
@@ -9503,7 +9500,7 @@
         <v>194</v>
       </c>
       <c r="L95" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M95" t="s">
         <v>203</v>
@@ -9511,13 +9508,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B96" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C96" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D96" t="s">
         <v>204</v>
@@ -9526,7 +9523,7 @@
         <v>195</v>
       </c>
       <c r="L96" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M96" t="s">
         <v>204</v>
@@ -9534,13 +9531,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D97" t="s">
         <v>205</v>
@@ -9549,7 +9546,7 @@
         <v>196</v>
       </c>
       <c r="L97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M97" t="s">
         <v>205</v>
@@ -9557,10 +9554,10 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B98" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C98" t="s">
         <v>206</v>
@@ -9580,10 +9577,10 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C99" t="s">
         <v>207</v>
@@ -9603,10 +9600,10 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C100" t="s">
         <v>207</v>
@@ -9626,13 +9623,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D101" t="s">
         <v>211</v>
@@ -9641,7 +9638,7 @@
         <v>200</v>
       </c>
       <c r="L101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M101" t="s">
         <v>211</v>
@@ -9649,13 +9646,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B102" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" t="s">
         <v>209</v>
@@ -9664,7 +9661,7 @@
         <v>201</v>
       </c>
       <c r="L102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M102" t="s">
         <v>209</v>
@@ -9672,13 +9669,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C103" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D103" t="s">
         <v>212</v>
@@ -9687,7 +9684,7 @@
         <v>202</v>
       </c>
       <c r="L103" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M103" t="s">
         <v>212</v>
@@ -9695,13 +9692,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C104" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" t="s">
         <v>210</v>
@@ -9710,7 +9707,7 @@
         <v>203</v>
       </c>
       <c r="L104" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M104" t="s">
         <v>210</v>
@@ -9718,13 +9715,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C105" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" t="s">
         <v>214</v>
@@ -9733,7 +9730,7 @@
         <v>204</v>
       </c>
       <c r="L105" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M105" t="s">
         <v>214</v>
@@ -9741,13 +9738,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B106" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" t="s">
         <v>216</v>
@@ -9756,7 +9753,7 @@
         <v>205</v>
       </c>
       <c r="L106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M106" t="s">
         <v>216</v>
@@ -9764,13 +9761,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B107" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D107" t="s">
         <v>217</v>
@@ -9779,7 +9776,7 @@
         <v>206</v>
       </c>
       <c r="L107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M107" t="s">
         <v>217</v>
@@ -9787,13 +9784,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D108" t="s">
         <v>215</v>
@@ -9802,7 +9799,7 @@
         <v>207</v>
       </c>
       <c r="L108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M108" t="s">
         <v>215</v>
@@ -9810,13 +9807,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C109" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" t="s">
         <v>213</v>
@@ -9825,7 +9822,7 @@
         <v>208</v>
       </c>
       <c r="L109" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M109" t="s">
         <v>213</v>
@@ -9833,10 +9830,10 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C110" t="s">
         <v>218</v>
@@ -9856,10 +9853,10 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C111" t="s">
         <v>218</v>
@@ -9879,10 +9876,10 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C112" t="s">
         <v>218</v>
@@ -9902,10 +9899,10 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
         <v>218</v>
@@ -9925,10 +9922,10 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B114" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C114" t="s">
         <v>218</v>
@@ -9948,13 +9945,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C115" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D115" t="s">
         <v>224</v>
@@ -9963,7 +9960,7 @@
         <v>214</v>
       </c>
       <c r="L115" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M115" t="s">
         <v>224</v>
@@ -9971,36 +9968,36 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D116" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E116">
         <v>215</v>
       </c>
       <c r="L116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M116" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D117" t="s">
         <v>229</v>
@@ -10009,7 +10006,7 @@
         <v>216</v>
       </c>
       <c r="L117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M117" t="s">
         <v>229</v>
@@ -10017,13 +10014,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C118" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D118" t="s">
         <v>227</v>
@@ -10032,7 +10029,7 @@
         <v>217</v>
       </c>
       <c r="L118" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M118" t="s">
         <v>227</v>
@@ -10040,13 +10037,13 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B119" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C119" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D119" t="s">
         <v>226</v>
@@ -10055,7 +10052,7 @@
         <v>218</v>
       </c>
       <c r="L119" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M119" t="s">
         <v>226</v>
@@ -10063,13 +10060,13 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C120" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D120" t="s">
         <v>225</v>
@@ -10078,7 +10075,7 @@
         <v>219</v>
       </c>
       <c r="L120" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M120" t="s">
         <v>225</v>
@@ -10086,13 +10083,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C121" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D121" t="s">
         <v>228</v>
@@ -10101,7 +10098,7 @@
         <v>220</v>
       </c>
       <c r="L121" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M121" t="s">
         <v>228</v>
@@ -10109,56 +10106,56 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C122" t="s">
+        <v>251</v>
+      </c>
+      <c r="D122" t="s">
         <v>252</v>
-      </c>
-      <c r="D122" t="s">
-        <v>253</v>
       </c>
       <c r="E122">
         <v>221</v>
       </c>
       <c r="L122" t="s">
+        <v>251</v>
+      </c>
+      <c r="M122" t="s">
         <v>252</v>
-      </c>
-      <c r="M122" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D123" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E123">
         <v>222</v>
       </c>
       <c r="L123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M123" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B124" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C124" t="s">
         <v>232</v>
@@ -10178,10 +10175,10 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C125" t="s">
         <v>232</v>
@@ -10201,10 +10198,10 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
         <v>232</v>
@@ -10224,10 +10221,10 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C127" t="s">
         <v>232</v>
@@ -10247,13 +10244,13 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C128" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D128" t="s">
         <v>234</v>
@@ -10262,7 +10259,7 @@
         <v>227</v>
       </c>
       <c r="L128" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M128" t="s">
         <v>234</v>
@@ -10270,13 +10267,13 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C129" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D129" t="s">
         <v>235</v>
@@ -10285,7 +10282,7 @@
         <v>228</v>
       </c>
       <c r="L129" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M129" t="s">
         <v>235</v>
@@ -10293,370 +10290,370 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C130" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D130" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="E130">
         <v>229</v>
       </c>
       <c r="L130" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M130" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B131" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E131">
         <v>230</v>
       </c>
       <c r="L131" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C132" t="s">
+        <v>236</v>
+      </c>
+      <c r="D132" t="s">
         <v>237</v>
-      </c>
-      <c r="D132" t="s">
-        <v>238</v>
       </c>
       <c r="E132">
         <v>231</v>
       </c>
       <c r="L132" t="s">
+        <v>236</v>
+      </c>
+      <c r="M132" t="s">
         <v>237</v>
-      </c>
-      <c r="M132" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E133">
         <v>232</v>
       </c>
       <c r="L133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C134" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D134" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E134">
         <v>233</v>
       </c>
       <c r="L134" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M134" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B135" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D135" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E135">
         <v>234</v>
       </c>
       <c r="L135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M135" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B136" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E136">
         <v>235</v>
       </c>
       <c r="L136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B137" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C137" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D137" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E137">
         <v>236</v>
       </c>
       <c r="L137" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M137" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D138" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E138">
         <v>237</v>
       </c>
       <c r="L138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M138" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B139" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C139" t="s">
+        <v>239</v>
+      </c>
+      <c r="D139" t="s">
         <v>240</v>
-      </c>
-      <c r="D139" t="s">
-        <v>241</v>
       </c>
       <c r="E139">
         <v>238</v>
       </c>
       <c r="L139" t="s">
+        <v>239</v>
+      </c>
+      <c r="M139" t="s">
         <v>240</v>
-      </c>
-      <c r="M139" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B140" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E140">
         <v>239</v>
       </c>
       <c r="L140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B141" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C141" t="s">
+        <v>249</v>
+      </c>
+      <c r="D141" t="s">
         <v>250</v>
-      </c>
-      <c r="D141" t="s">
-        <v>251</v>
       </c>
       <c r="E141">
         <v>240</v>
       </c>
       <c r="L141" t="s">
+        <v>249</v>
+      </c>
+      <c r="M141" t="s">
         <v>250</v>
-      </c>
-      <c r="M141" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B142" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C142" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D142" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E142">
         <v>241</v>
       </c>
       <c r="L142" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M142" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B143" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C143" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D143" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E143">
         <v>242</v>
       </c>
       <c r="L143" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M143" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C144" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D144" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E144">
         <v>243</v>
       </c>
       <c r="L144" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M144" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B145" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C145" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D145" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E145">
         <v>244</v>
       </c>
       <c r="L145" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M145" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -10700,45 +10697,45 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
         <v>142</v>
@@ -10747,13 +10744,13 @@
         <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L2" t="s">
         <v>165</v>
@@ -10764,13 +10761,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" t="s">
         <v>143</v>
@@ -10779,62 +10776,62 @@
         <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E4">
         <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" t="s">
         <v>144</v>
@@ -10843,30 +10840,30 @@
         <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
@@ -10875,27 +10872,27 @@
         <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" t="s">
         <v>146</v>
@@ -10904,13 +10901,13 @@
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M7" t="s">
         <v>142</v>
@@ -10918,13 +10915,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D8" t="s">
         <v>147</v>
@@ -10933,13 +10930,13 @@
         <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M8" t="s">
         <v>143</v>
@@ -10947,13 +10944,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D9" t="s">
         <v>148</v>
@@ -10962,13 +10959,13 @@
         <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M9" t="s">
         <v>172</v>
@@ -10976,13 +10973,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D10" t="s">
         <v>149</v>
@@ -10991,13 +10988,13 @@
         <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M10" t="s">
         <v>168</v>
@@ -11005,13 +11002,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D11" t="s">
         <v>150</v>
@@ -11020,10 +11017,10 @@
         <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L11" t="s">
         <v>176</v>
@@ -11034,13 +11031,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D12" t="s">
         <v>151</v>
@@ -11049,13 +11046,13 @@
         <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M12" t="s">
         <v>144</v>
@@ -11063,13 +11060,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D13" t="s">
         <v>152</v>
@@ -11078,13 +11075,13 @@
         <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M13" t="s">
         <v>148</v>
@@ -11092,13 +11089,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D14" t="s">
         <v>153</v>
@@ -11107,13 +11104,13 @@
         <v>113</v>
       </c>
       <c r="I14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M14" t="s">
         <v>186</v>
@@ -11121,13 +11118,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" t="s">
         <v>154</v>
@@ -11136,13 +11133,13 @@
         <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M15" t="s">
         <v>191</v>
@@ -11150,13 +11147,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D16" t="s">
         <v>155</v>
@@ -11165,10 +11162,10 @@
         <v>115</v>
       </c>
       <c r="I16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L16" t="s">
         <v>192</v>
@@ -11179,376 +11176,376 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E17">
         <v>116</v>
       </c>
       <c r="I17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E18">
         <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E19">
         <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E20">
         <v>119</v>
       </c>
       <c r="I20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E21">
         <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E22">
         <v>121</v>
       </c>
       <c r="I22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E23">
         <v>122</v>
       </c>
       <c r="I23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24">
         <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E25">
         <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E26">
         <v>125</v>
       </c>
       <c r="I26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E27">
         <v>126</v>
       </c>
       <c r="I27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E28">
         <v>127</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E29">
         <v>128</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M29" t="s">
         <v>198</v>
@@ -11556,68 +11553,68 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E30">
         <v>129</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E31">
         <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J31" t="s">
         <v>165</v>
       </c>
       <c r="L31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" t="s">
         <v>165</v>
@@ -11629,27 +11626,27 @@
         <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D33" t="s">
         <v>168</v>
@@ -11658,13 +11655,13 @@
         <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J33" t="s">
         <v>176</v>
       </c>
       <c r="L33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s">
         <v>145</v>
@@ -11672,13 +11669,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D34" t="s">
         <v>172</v>
@@ -11687,24 +11684,24 @@
         <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C35" t="s">
         <v>176</v>
@@ -11716,13 +11713,13 @@
         <v>134</v>
       </c>
       <c r="I35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s">
         <v>208</v>
@@ -11730,13 +11727,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D36" t="s">
         <v>186</v>
@@ -11745,27 +11742,27 @@
         <v>135</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J36" t="s">
         <v>192</v>
       </c>
       <c r="L36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D37" t="s">
         <v>191</v>
@@ -11774,24 +11771,24 @@
         <v>136</v>
       </c>
       <c r="I37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C38" t="s">
         <v>192</v>
@@ -11803,13 +11800,13 @@
         <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M38" t="s">
         <v>146</v>
@@ -11817,13 +11814,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D39" t="s">
         <v>198</v>
@@ -11832,13 +11829,13 @@
         <v>138</v>
       </c>
       <c r="I39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M39" t="s">
         <v>147</v>
@@ -11846,22 +11843,22 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E40">
         <v>139</v>
       </c>
       <c r="I40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J40" t="s">
         <v>213</v>
@@ -11875,13 +11872,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D41" t="s">
         <v>208</v>
@@ -11890,24 +11887,24 @@
         <v>140</v>
       </c>
       <c r="I41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C42" t="s">
         <v>213</v>
@@ -11919,56 +11916,56 @@
         <v>141</v>
       </c>
       <c r="I42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E43">
         <v>142</v>
       </c>
       <c r="I43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D44" t="s">
         <v>231</v>
@@ -11977,7 +11974,7 @@
         <v>143</v>
       </c>
       <c r="L44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M44" t="s">
         <v>149</v>
@@ -11985,13 +11982,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D45" t="s">
         <v>233</v>
@@ -12000,53 +11997,53 @@
         <v>144</v>
       </c>
       <c r="L45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="E46">
         <v>145</v>
       </c>
       <c r="L46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E47">
         <v>146</v>
       </c>
       <c r="L47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M47" t="s">
         <v>155</v>
@@ -12054,22 +12051,22 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E48">
         <v>147</v>
       </c>
       <c r="L48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M48" t="s">
         <v>150</v>
@@ -12077,137 +12074,137 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E49">
         <v>148</v>
       </c>
       <c r="L49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E50">
         <v>149</v>
       </c>
       <c r="L50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E51">
         <v>150</v>
       </c>
       <c r="L51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E52">
         <v>151</v>
       </c>
       <c r="L52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E53">
         <v>152</v>
       </c>
       <c r="L53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E54">
         <v>153</v>
       </c>
       <c r="L54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M54" t="s">
         <v>151</v>
@@ -12215,22 +12212,22 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E55">
         <v>154</v>
       </c>
       <c r="L55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M55" t="s">
         <v>152</v>
@@ -12238,22 +12235,22 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E56">
         <v>155</v>
       </c>
       <c r="L56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M56" t="s">
         <v>233</v>
@@ -12261,22 +12258,22 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E57">
         <v>156</v>
       </c>
       <c r="L57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M57" t="s">
         <v>231</v>
@@ -12284,45 +12281,45 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E58">
         <v>157</v>
       </c>
       <c r="L58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M58" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D59" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E59">
         <v>158</v>
       </c>
       <c r="L59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M59" t="s">
         <v>153</v>
@@ -12330,22 +12327,22 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E60">
         <v>159</v>
       </c>
       <c r="L60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M60" t="s">
         <v>154</v>
@@ -12353,25 +12350,25 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E61">
         <v>160</v>
       </c>
       <c r="L61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
